--- a/pumping/Pumpage_Data_ESL.xlsx
+++ b/pumping/Pumpage_Data_ESL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbabrams\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pu\Documents\GitHub\GEO572-Project-E.St.Louis\pumping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C4D111-787A-4CD0-B04F-DAC071D1AF04}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42CCC82-92EA-4A1B-967F-C6548A5B6CB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{453DED0F-880D-4EF0-BE81-F360E1BDD7F0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{453DED0F-880D-4EF0-BE81-F360E1BDD7F0}"/>
   </bookViews>
   <sheets>
     <sheet name="ESL" sheetId="3" r:id="rId1"/>
@@ -2315,7 +2315,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2326,6 +2326,12 @@
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
         <bgColor indexed="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2372,7 +2378,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2384,6 +2390,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2701,13 +2710,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C4EF743-2431-49CA-9BFB-EFD0BF847413}">
   <dimension ref="A1:AT545"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AT545"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2847,7 +2856,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>135008</v>
       </c>
@@ -2913,7 +2922,7 @@
       <c r="AS2" s="4"/>
       <c r="AT2" s="4"/>
     </row>
-    <row r="3" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>296811</v>
       </c>
@@ -3005,7 +3014,7 @@
       <c r="AS3" s="4"/>
       <c r="AT3" s="4"/>
     </row>
-    <row r="4" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>314829</v>
       </c>
@@ -3081,7 +3090,7 @@
       </c>
       <c r="AT4" s="4"/>
     </row>
-    <row r="5" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>314830</v>
       </c>
@@ -3157,7 +3166,7 @@
       </c>
       <c r="AT5" s="4"/>
     </row>
-    <row r="6" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>314847</v>
       </c>
@@ -3235,7 +3244,7 @@
       </c>
       <c r="AT6" s="4"/>
     </row>
-    <row r="7" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>323962</v>
       </c>
@@ -3299,7 +3308,7 @@
       <c r="AS7" s="4"/>
       <c r="AT7" s="4"/>
     </row>
-    <row r="8" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>338688</v>
       </c>
@@ -3365,7 +3374,7 @@
       <c r="AS8" s="4"/>
       <c r="AT8" s="4"/>
     </row>
-    <row r="9" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>348353</v>
       </c>
@@ -3439,7 +3448,7 @@
       <c r="AS9" s="4"/>
       <c r="AT9" s="4"/>
     </row>
-    <row r="10" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>400115</v>
       </c>
@@ -3533,7 +3542,7 @@
       </c>
       <c r="AT10" s="4"/>
     </row>
-    <row r="11" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>400116</v>
       </c>
@@ -3627,7 +3636,7 @@
       </c>
       <c r="AT11" s="4"/>
     </row>
-    <row r="12" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>400117</v>
       </c>
@@ -3711,7 +3720,7 @@
       <c r="AS12" s="4"/>
       <c r="AT12" s="4"/>
     </row>
-    <row r="13" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>402804</v>
       </c>
@@ -3811,14 +3820,14 @@
       <c r="AS13" s="4"/>
       <c r="AT13" s="4"/>
     </row>
-    <row r="14" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>402805</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="5" t="s">
         <v>109</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -3903,14 +3912,14 @@
       <c r="AS14" s="4"/>
       <c r="AT14" s="4"/>
     </row>
-    <row r="15" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>402806</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="5" t="s">
         <v>109</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -3989,14 +3998,14 @@
       <c r="AS15" s="4"/>
       <c r="AT15" s="4"/>
     </row>
-    <row r="16" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>402807</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="5" t="s">
         <v>109</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -4065,14 +4074,14 @@
       <c r="AS16" s="4"/>
       <c r="AT16" s="4"/>
     </row>
-    <row r="17" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>402808</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="5" t="s">
         <v>109</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -4133,7 +4142,7 @@
       <c r="AS17" s="4"/>
       <c r="AT17" s="4"/>
     </row>
-    <row r="18" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>402810</v>
       </c>
@@ -4211,7 +4220,7 @@
       <c r="AS18" s="4"/>
       <c r="AT18" s="4"/>
     </row>
-    <row r="19" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>402811</v>
       </c>
@@ -4315,7 +4324,7 @@
       <c r="AS19" s="4"/>
       <c r="AT19" s="4"/>
     </row>
-    <row r="20" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>402812</v>
       </c>
@@ -4411,7 +4420,7 @@
       <c r="AS20" s="4"/>
       <c r="AT20" s="4"/>
     </row>
-    <row r="21" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>402813</v>
       </c>
@@ -4507,7 +4516,7 @@
       <c r="AS21" s="4"/>
       <c r="AT21" s="4"/>
     </row>
-    <row r="22" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>402816</v>
       </c>
@@ -4585,7 +4594,7 @@
       <c r="AS22" s="4"/>
       <c r="AT22" s="4"/>
     </row>
-    <row r="23" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>402817</v>
       </c>
@@ -4663,7 +4672,7 @@
       <c r="AS23" s="4"/>
       <c r="AT23" s="4"/>
     </row>
-    <row r="24" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>402818</v>
       </c>
@@ -4741,7 +4750,7 @@
       <c r="AS24" s="4"/>
       <c r="AT24" s="4"/>
     </row>
-    <row r="25" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>402821</v>
       </c>
@@ -4819,7 +4828,7 @@
       <c r="AS25" s="4"/>
       <c r="AT25" s="4"/>
     </row>
-    <row r="26" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>402822</v>
       </c>
@@ -4901,7 +4910,7 @@
       <c r="AS26" s="4"/>
       <c r="AT26" s="4"/>
     </row>
-    <row r="27" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>402823</v>
       </c>
@@ -4983,7 +4992,7 @@
       <c r="AS27" s="4"/>
       <c r="AT27" s="4"/>
     </row>
-    <row r="28" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>402824</v>
       </c>
@@ -5059,7 +5068,7 @@
       <c r="AS28" s="4"/>
       <c r="AT28" s="4"/>
     </row>
-    <row r="29" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>402825</v>
       </c>
@@ -5137,7 +5146,7 @@
       <c r="AS29" s="4"/>
       <c r="AT29" s="4"/>
     </row>
-    <row r="30" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>402827</v>
       </c>
@@ -5241,7 +5250,7 @@
       <c r="AS30" s="4"/>
       <c r="AT30" s="4"/>
     </row>
-    <row r="31" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>402828</v>
       </c>
@@ -5369,7 +5378,7 @@
       <c r="AS31" s="4"/>
       <c r="AT31" s="4"/>
     </row>
-    <row r="32" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>402832</v>
       </c>
@@ -5447,7 +5456,7 @@
       <c r="AS32" s="4"/>
       <c r="AT32" s="4"/>
     </row>
-    <row r="33" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>402833</v>
       </c>
@@ -5527,7 +5536,7 @@
       <c r="AS33" s="4"/>
       <c r="AT33" s="4"/>
     </row>
-    <row r="34" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>402834</v>
       </c>
@@ -5603,7 +5612,7 @@
       <c r="AS34" s="4"/>
       <c r="AT34" s="4"/>
     </row>
-    <row r="35" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>402835</v>
       </c>
@@ -5679,7 +5688,7 @@
       <c r="AS35" s="4"/>
       <c r="AT35" s="4"/>
     </row>
-    <row r="36" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>402836</v>
       </c>
@@ -5755,7 +5764,7 @@
       <c r="AS36" s="4"/>
       <c r="AT36" s="4"/>
     </row>
-    <row r="37" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>402837</v>
       </c>
@@ -5829,7 +5838,7 @@
       <c r="AS37" s="4"/>
       <c r="AT37" s="4"/>
     </row>
-    <row r="38" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>402838</v>
       </c>
@@ -5917,7 +5926,7 @@
       </c>
       <c r="AT38" s="4"/>
     </row>
-    <row r="39" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>402839</v>
       </c>
@@ -6007,7 +6016,7 @@
       </c>
       <c r="AT39" s="4"/>
     </row>
-    <row r="40" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>402840</v>
       </c>
@@ -6139,7 +6148,7 @@
       </c>
       <c r="AT40" s="4"/>
     </row>
-    <row r="41" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>402843</v>
       </c>
@@ -6223,7 +6232,7 @@
       <c r="AS41" s="4"/>
       <c r="AT41" s="4"/>
     </row>
-    <row r="42" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>402844</v>
       </c>
@@ -6299,7 +6308,7 @@
       <c r="AS42" s="4"/>
       <c r="AT42" s="4"/>
     </row>
-    <row r="43" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>402845</v>
       </c>
@@ -6391,7 +6400,7 @@
       <c r="AS43" s="4"/>
       <c r="AT43" s="4"/>
     </row>
-    <row r="44" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>402846</v>
       </c>
@@ -6485,7 +6494,7 @@
       <c r="AS44" s="4"/>
       <c r="AT44" s="4"/>
     </row>
-    <row r="45" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>402847</v>
       </c>
@@ -6573,7 +6582,7 @@
       <c r="AS45" s="4"/>
       <c r="AT45" s="4"/>
     </row>
-    <row r="46" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>402848</v>
       </c>
@@ -6707,7 +6716,7 @@
         <v>1233000</v>
       </c>
     </row>
-    <row r="47" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>402849</v>
       </c>
@@ -6841,7 +6850,7 @@
         <v>43379000</v>
       </c>
     </row>
-    <row r="48" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>402850</v>
       </c>
@@ -6923,7 +6932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>402851</v>
       </c>
@@ -7003,7 +7012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>402852</v>
       </c>
@@ -7119,7 +7128,7 @@
         <v>67178000</v>
       </c>
     </row>
-    <row r="51" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>402855</v>
       </c>
@@ -7247,7 +7256,7 @@
         <v>93206600</v>
       </c>
     </row>
-    <row r="52" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>402856</v>
       </c>
@@ -7339,7 +7348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>402857</v>
       </c>
@@ -7411,7 +7420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>402858</v>
       </c>
@@ -7489,7 +7498,7 @@
       <c r="AS54" s="4"/>
       <c r="AT54" s="4"/>
     </row>
-    <row r="55" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>402859</v>
       </c>
@@ -7567,7 +7576,7 @@
       <c r="AS55" s="4"/>
       <c r="AT55" s="4"/>
     </row>
-    <row r="56" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>402860</v>
       </c>
@@ -7645,7 +7654,7 @@
       <c r="AS56" s="4"/>
       <c r="AT56" s="4"/>
     </row>
-    <row r="57" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>402861</v>
       </c>
@@ -7723,7 +7732,7 @@
       <c r="AS57" s="4"/>
       <c r="AT57" s="4"/>
     </row>
-    <row r="58" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>402862</v>
       </c>
@@ -7787,7 +7796,7 @@
       <c r="AS58" s="4"/>
       <c r="AT58" s="4"/>
     </row>
-    <row r="59" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>402863</v>
       </c>
@@ -7849,7 +7858,7 @@
       <c r="AS59" s="4"/>
       <c r="AT59" s="4"/>
     </row>
-    <row r="60" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>402864</v>
       </c>
@@ -7911,7 +7920,7 @@
       <c r="AS60" s="4"/>
       <c r="AT60" s="4"/>
     </row>
-    <row r="61" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>402866</v>
       </c>
@@ -7973,7 +7982,7 @@
       <c r="AS61" s="4"/>
       <c r="AT61" s="4"/>
     </row>
-    <row r="62" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>402867</v>
       </c>
@@ -8037,7 +8046,7 @@
       <c r="AS62" s="4"/>
       <c r="AT62" s="4"/>
     </row>
-    <row r="63" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>402868</v>
       </c>
@@ -8101,7 +8110,7 @@
       <c r="AS63" s="4"/>
       <c r="AT63" s="4"/>
     </row>
-    <row r="64" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>402869</v>
       </c>
@@ -8165,7 +8174,7 @@
       <c r="AS64" s="4"/>
       <c r="AT64" s="4"/>
     </row>
-    <row r="65" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>402870</v>
       </c>
@@ -8231,7 +8240,7 @@
       <c r="AS65" s="4"/>
       <c r="AT65" s="4"/>
     </row>
-    <row r="66" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>402871</v>
       </c>
@@ -8297,7 +8306,7 @@
       <c r="AS66" s="4"/>
       <c r="AT66" s="4"/>
     </row>
-    <row r="67" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>402872</v>
       </c>
@@ -8361,7 +8370,7 @@
       <c r="AS67" s="4"/>
       <c r="AT67" s="4"/>
     </row>
-    <row r="68" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>402873</v>
       </c>
@@ -8425,7 +8434,7 @@
       <c r="AS68" s="4"/>
       <c r="AT68" s="4"/>
     </row>
-    <row r="69" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>402874</v>
       </c>
@@ -8489,7 +8498,7 @@
       <c r="AS69" s="4"/>
       <c r="AT69" s="4"/>
     </row>
-    <row r="70" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>402875</v>
       </c>
@@ -8553,7 +8562,7 @@
       <c r="AS70" s="4"/>
       <c r="AT70" s="4"/>
     </row>
-    <row r="71" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>402877</v>
       </c>
@@ -8619,7 +8628,7 @@
       <c r="AS71" s="4"/>
       <c r="AT71" s="4"/>
     </row>
-    <row r="72" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>402878</v>
       </c>
@@ -8685,7 +8694,7 @@
       <c r="AS72" s="4"/>
       <c r="AT72" s="4"/>
     </row>
-    <row r="73" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>402879</v>
       </c>
@@ -8751,7 +8760,7 @@
       <c r="AS73" s="4"/>
       <c r="AT73" s="4"/>
     </row>
-    <row r="74" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>402880</v>
       </c>
@@ -8817,7 +8826,7 @@
       <c r="AS74" s="4"/>
       <c r="AT74" s="4"/>
     </row>
-    <row r="75" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>402881</v>
       </c>
@@ -8883,7 +8892,7 @@
       <c r="AS75" s="4"/>
       <c r="AT75" s="4"/>
     </row>
-    <row r="76" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>402882</v>
       </c>
@@ -8949,7 +8958,7 @@
       <c r="AS76" s="4"/>
       <c r="AT76" s="4"/>
     </row>
-    <row r="77" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>402883</v>
       </c>
@@ -9015,7 +9024,7 @@
       <c r="AS77" s="4"/>
       <c r="AT77" s="4"/>
     </row>
-    <row r="78" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>402884</v>
       </c>
@@ -9083,7 +9092,7 @@
       <c r="AS78" s="4"/>
       <c r="AT78" s="4"/>
     </row>
-    <row r="79" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>402885</v>
       </c>
@@ -9167,7 +9176,7 @@
       <c r="AS79" s="4"/>
       <c r="AT79" s="4"/>
     </row>
-    <row r="80" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>402886</v>
       </c>
@@ -9233,7 +9242,7 @@
       <c r="AS80" s="4"/>
       <c r="AT80" s="4"/>
     </row>
-    <row r="81" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>402888</v>
       </c>
@@ -9299,7 +9308,7 @@
       <c r="AS81" s="4"/>
       <c r="AT81" s="4"/>
     </row>
-    <row r="82" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>402889</v>
       </c>
@@ -9365,7 +9374,7 @@
       <c r="AS82" s="4"/>
       <c r="AT82" s="4"/>
     </row>
-    <row r="83" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>402890</v>
       </c>
@@ -9433,7 +9442,7 @@
       <c r="AS83" s="4"/>
       <c r="AT83" s="4"/>
     </row>
-    <row r="84" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>402891</v>
       </c>
@@ -9499,7 +9508,7 @@
       <c r="AS84" s="4"/>
       <c r="AT84" s="4"/>
     </row>
-    <row r="85" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>402892</v>
       </c>
@@ -9565,7 +9574,7 @@
       <c r="AS85" s="4"/>
       <c r="AT85" s="4"/>
     </row>
-    <row r="86" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>402893</v>
       </c>
@@ -9631,7 +9640,7 @@
       <c r="AS86" s="4"/>
       <c r="AT86" s="4"/>
     </row>
-    <row r="87" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>402894</v>
       </c>
@@ -9699,7 +9708,7 @@
       <c r="AS87" s="4"/>
       <c r="AT87" s="4"/>
     </row>
-    <row r="88" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>402895</v>
       </c>
@@ -9767,7 +9776,7 @@
       <c r="AS88" s="4"/>
       <c r="AT88" s="4"/>
     </row>
-    <row r="89" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>402896</v>
       </c>
@@ -9835,7 +9844,7 @@
       <c r="AS89" s="4"/>
       <c r="AT89" s="4"/>
     </row>
-    <row r="90" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>402897</v>
       </c>
@@ -9901,7 +9910,7 @@
       <c r="AS90" s="4"/>
       <c r="AT90" s="4"/>
     </row>
-    <row r="91" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>402899</v>
       </c>
@@ -9969,7 +9978,7 @@
       <c r="AS91" s="4"/>
       <c r="AT91" s="4"/>
     </row>
-    <row r="92" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>402900</v>
       </c>
@@ -10035,7 +10044,7 @@
       <c r="AS92" s="4"/>
       <c r="AT92" s="4"/>
     </row>
-    <row r="93" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>402901</v>
       </c>
@@ -10101,7 +10110,7 @@
       <c r="AS93" s="4"/>
       <c r="AT93" s="4"/>
     </row>
-    <row r="94" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>402902</v>
       </c>
@@ -10185,7 +10194,7 @@
       <c r="AS94" s="4"/>
       <c r="AT94" s="4"/>
     </row>
-    <row r="95" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>402903</v>
       </c>
@@ -10279,7 +10288,7 @@
       </c>
       <c r="AT95" s="4"/>
     </row>
-    <row r="96" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>402904</v>
       </c>
@@ -10363,7 +10372,7 @@
       <c r="AS96" s="4"/>
       <c r="AT96" s="4"/>
     </row>
-    <row r="97" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>402905</v>
       </c>
@@ -10447,7 +10456,7 @@
       <c r="AS97" s="4"/>
       <c r="AT97" s="4"/>
     </row>
-    <row r="98" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>402906</v>
       </c>
@@ -10541,7 +10550,7 @@
       </c>
       <c r="AT98" s="4"/>
     </row>
-    <row r="99" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>402907</v>
       </c>
@@ -10675,7 +10684,7 @@
       </c>
       <c r="AT99" s="4"/>
     </row>
-    <row r="100" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>402908</v>
       </c>
@@ -10753,7 +10762,7 @@
       <c r="AS100" s="4"/>
       <c r="AT100" s="4"/>
     </row>
-    <row r="101" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>402910</v>
       </c>
@@ -10887,7 +10896,7 @@
       </c>
       <c r="AT101" s="4"/>
     </row>
-    <row r="102" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>402911</v>
       </c>
@@ -11021,7 +11030,7 @@
       </c>
       <c r="AT102" s="4"/>
     </row>
-    <row r="103" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>402912</v>
       </c>
@@ -11153,7 +11162,7 @@
       </c>
       <c r="AT103" s="4"/>
     </row>
-    <row r="104" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
         <v>402913</v>
       </c>
@@ -11235,7 +11244,7 @@
       </c>
       <c r="AT104" s="4"/>
     </row>
-    <row r="105" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
         <v>402914</v>
       </c>
@@ -11309,7 +11318,7 @@
       <c r="AS105" s="4"/>
       <c r="AT105" s="4"/>
     </row>
-    <row r="106" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
         <v>402915</v>
       </c>
@@ -11377,7 +11386,7 @@
       <c r="AS106" s="4"/>
       <c r="AT106" s="4"/>
     </row>
-    <row r="107" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
         <v>402916</v>
       </c>
@@ -11489,7 +11498,7 @@
       </c>
       <c r="AT107" s="4"/>
     </row>
-    <row r="108" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
         <v>402917</v>
       </c>
@@ -11611,7 +11620,7 @@
       </c>
       <c r="AT108" s="4"/>
     </row>
-    <row r="109" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
         <v>402918</v>
       </c>
@@ -11723,7 +11732,7 @@
       </c>
       <c r="AT109" s="4"/>
     </row>
-    <row r="110" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
         <v>402919</v>
       </c>
@@ -11795,7 +11804,7 @@
       </c>
       <c r="AT110" s="4"/>
     </row>
-    <row r="111" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
         <v>402921</v>
       </c>
@@ -11915,7 +11924,7 @@
       </c>
       <c r="AT111" s="4"/>
     </row>
-    <row r="112" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
         <v>402922</v>
       </c>
@@ -12031,7 +12040,7 @@
       </c>
       <c r="AT112" s="4"/>
     </row>
-    <row r="113" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
         <v>402923</v>
       </c>
@@ -12163,7 +12172,7 @@
       </c>
       <c r="AT113" s="4"/>
     </row>
-    <row r="114" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
         <v>402924</v>
       </c>
@@ -12229,7 +12238,7 @@
       </c>
       <c r="AT114" s="4"/>
     </row>
-    <row r="115" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
         <v>402925</v>
       </c>
@@ -12295,7 +12304,7 @@
       </c>
       <c r="AT115" s="4"/>
     </row>
-    <row r="116" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
         <v>402926</v>
       </c>
@@ -12359,7 +12368,7 @@
       </c>
       <c r="AT116" s="4"/>
     </row>
-    <row r="117" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
         <v>402927</v>
       </c>
@@ -12423,7 +12432,7 @@
       </c>
       <c r="AT117" s="4"/>
     </row>
-    <row r="118" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
         <v>402928</v>
       </c>
@@ -12487,7 +12496,7 @@
       </c>
       <c r="AT118" s="4"/>
     </row>
-    <row r="119" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
         <v>402929</v>
       </c>
@@ -12551,7 +12560,7 @@
       </c>
       <c r="AT119" s="4"/>
     </row>
-    <row r="120" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
         <v>402930</v>
       </c>
@@ -12615,7 +12624,7 @@
       </c>
       <c r="AT120" s="4"/>
     </row>
-    <row r="121" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
         <v>402932</v>
       </c>
@@ -12679,7 +12688,7 @@
       </c>
       <c r="AT121" s="4"/>
     </row>
-    <row r="122" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
         <v>402933</v>
       </c>
@@ -12743,7 +12752,7 @@
       </c>
       <c r="AT122" s="4"/>
     </row>
-    <row r="123" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
         <v>402934</v>
       </c>
@@ -12807,7 +12816,7 @@
       </c>
       <c r="AT123" s="4"/>
     </row>
-    <row r="124" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
         <v>402935</v>
       </c>
@@ -12871,7 +12880,7 @@
       </c>
       <c r="AT124" s="4"/>
     </row>
-    <row r="125" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
         <v>402936</v>
       </c>
@@ -12935,7 +12944,7 @@
       </c>
       <c r="AT125" s="4"/>
     </row>
-    <row r="126" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
         <v>402937</v>
       </c>
@@ -13001,7 +13010,7 @@
       </c>
       <c r="AT126" s="4"/>
     </row>
-    <row r="127" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
         <v>402938</v>
       </c>
@@ -13067,7 +13076,7 @@
       </c>
       <c r="AT127" s="4"/>
     </row>
-    <row r="128" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
         <v>402939</v>
       </c>
@@ -13133,7 +13142,7 @@
       </c>
       <c r="AT128" s="4"/>
     </row>
-    <row r="129" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
         <v>402940</v>
       </c>
@@ -13199,7 +13208,7 @@
       </c>
       <c r="AT129" s="4"/>
     </row>
-    <row r="130" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
         <v>402941</v>
       </c>
@@ -13263,7 +13272,7 @@
       </c>
       <c r="AT130" s="4"/>
     </row>
-    <row r="131" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
         <v>402943</v>
       </c>
@@ -13329,7 +13338,7 @@
       </c>
       <c r="AT131" s="4"/>
     </row>
-    <row r="132" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
         <v>402944</v>
       </c>
@@ -13397,7 +13406,7 @@
       </c>
       <c r="AT132" s="4"/>
     </row>
-    <row r="133" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
         <v>402945</v>
       </c>
@@ -13465,7 +13474,7 @@
       </c>
       <c r="AT133" s="4"/>
     </row>
-    <row r="134" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
         <v>402946</v>
       </c>
@@ -13533,7 +13542,7 @@
       </c>
       <c r="AT134" s="4"/>
     </row>
-    <row r="135" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
         <v>402947</v>
       </c>
@@ -13601,7 +13610,7 @@
       </c>
       <c r="AT135" s="4"/>
     </row>
-    <row r="136" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
         <v>402948</v>
       </c>
@@ -13669,7 +13678,7 @@
       </c>
       <c r="AT136" s="4"/>
     </row>
-    <row r="137" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A137" s="2">
         <v>402949</v>
       </c>
@@ -13735,7 +13744,7 @@
       </c>
       <c r="AT137" s="4"/>
     </row>
-    <row r="138" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
         <v>402950</v>
       </c>
@@ -13801,7 +13810,7 @@
       </c>
       <c r="AT138" s="4"/>
     </row>
-    <row r="139" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
         <v>402951</v>
       </c>
@@ -13867,7 +13876,7 @@
       </c>
       <c r="AT139" s="4"/>
     </row>
-    <row r="140" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A140" s="2">
         <v>402952</v>
       </c>
@@ -13987,7 +13996,7 @@
       </c>
       <c r="AT140" s="4"/>
     </row>
-    <row r="141" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A141" s="2">
         <v>402954</v>
       </c>
@@ -14101,7 +14110,7 @@
       </c>
       <c r="AT141" s="4"/>
     </row>
-    <row r="142" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
         <v>402955</v>
       </c>
@@ -14181,7 +14190,7 @@
       </c>
       <c r="AT142" s="4"/>
     </row>
-    <row r="143" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
         <v>402956</v>
       </c>
@@ -14305,7 +14314,7 @@
       </c>
       <c r="AT143" s="4"/>
     </row>
-    <row r="144" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A144" s="2">
         <v>402957</v>
       </c>
@@ -14369,7 +14378,7 @@
       </c>
       <c r="AT144" s="4"/>
     </row>
-    <row r="145" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
         <v>402958</v>
       </c>
@@ -14433,7 +14442,7 @@
       </c>
       <c r="AT145" s="4"/>
     </row>
-    <row r="146" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A146" s="2">
         <v>402959</v>
       </c>
@@ -14497,7 +14506,7 @@
       </c>
       <c r="AT146" s="4"/>
     </row>
-    <row r="147" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A147" s="2">
         <v>402960</v>
       </c>
@@ -14561,7 +14570,7 @@
       </c>
       <c r="AT147" s="4"/>
     </row>
-    <row r="148" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A148" s="2">
         <v>402961</v>
       </c>
@@ -14675,7 +14684,7 @@
       </c>
       <c r="AT148" s="4"/>
     </row>
-    <row r="149" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A149" s="2">
         <v>402962</v>
       </c>
@@ -14741,7 +14750,7 @@
       </c>
       <c r="AT149" s="4"/>
     </row>
-    <row r="150" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A150" s="2">
         <v>402963</v>
       </c>
@@ -14807,7 +14816,7 @@
       </c>
       <c r="AT150" s="4"/>
     </row>
-    <row r="151" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A151" s="2">
         <v>402966</v>
       </c>
@@ -14871,7 +14880,7 @@
       </c>
       <c r="AT151" s="4"/>
     </row>
-    <row r="152" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A152" s="2">
         <v>402967</v>
       </c>
@@ -14939,7 +14948,7 @@
       </c>
       <c r="AT152" s="4"/>
     </row>
-    <row r="153" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A153" s="2">
         <v>402968</v>
       </c>
@@ -15007,7 +15016,7 @@
       </c>
       <c r="AT153" s="4"/>
     </row>
-    <row r="154" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A154" s="2">
         <v>402969</v>
       </c>
@@ -15075,7 +15084,7 @@
       </c>
       <c r="AT154" s="4"/>
     </row>
-    <row r="155" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A155" s="2">
         <v>402970</v>
       </c>
@@ -15143,7 +15152,7 @@
       </c>
       <c r="AT155" s="4"/>
     </row>
-    <row r="156" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A156" s="2">
         <v>402971</v>
       </c>
@@ -15225,7 +15234,7 @@
       </c>
       <c r="AT156" s="4"/>
     </row>
-    <row r="157" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A157" s="2">
         <v>402972</v>
       </c>
@@ -15335,7 +15344,7 @@
       </c>
       <c r="AT157" s="4"/>
     </row>
-    <row r="158" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A158" s="2">
         <v>402973</v>
       </c>
@@ -15445,7 +15454,7 @@
       </c>
       <c r="AT158" s="4"/>
     </row>
-    <row r="159" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A159" s="2">
         <v>402974</v>
       </c>
@@ -15529,7 +15538,7 @@
       </c>
       <c r="AT159" s="4"/>
     </row>
-    <row r="160" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A160" s="2">
         <v>402975</v>
       </c>
@@ -15627,7 +15636,7 @@
       </c>
       <c r="AT160" s="4"/>
     </row>
-    <row r="161" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A161" s="2">
         <v>402977</v>
       </c>
@@ -15721,7 +15730,7 @@
       </c>
       <c r="AT161" s="4"/>
     </row>
-    <row r="162" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A162" s="2">
         <v>402978</v>
       </c>
@@ -15799,7 +15808,7 @@
       </c>
       <c r="AT162" s="4"/>
     </row>
-    <row r="163" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A163" s="2">
         <v>402979</v>
       </c>
@@ -15903,7 +15912,7 @@
       </c>
       <c r="AT163" s="4"/>
     </row>
-    <row r="164" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A164" s="2">
         <v>402980</v>
       </c>
@@ -16001,7 +16010,7 @@
       </c>
       <c r="AT164" s="4"/>
     </row>
-    <row r="165" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A165" s="2">
         <v>402981</v>
       </c>
@@ -16135,7 +16144,7 @@
       </c>
       <c r="AT165" s="4"/>
     </row>
-    <row r="166" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A166" s="2">
         <v>402982</v>
       </c>
@@ -16269,7 +16278,7 @@
       </c>
       <c r="AT166" s="4"/>
     </row>
-    <row r="167" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A167" s="2">
         <v>402983</v>
       </c>
@@ -16397,7 +16406,7 @@
       </c>
       <c r="AT167" s="4"/>
     </row>
-    <row r="168" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A168" s="2">
         <v>402984</v>
       </c>
@@ -16517,7 +16526,7 @@
       </c>
       <c r="AT168" s="4"/>
     </row>
-    <row r="169" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A169" s="2">
         <v>402985</v>
       </c>
@@ -16643,7 +16652,7 @@
       </c>
       <c r="AT169" s="4"/>
     </row>
-    <row r="170" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A170" s="2">
         <v>402986</v>
       </c>
@@ -16755,7 +16764,7 @@
       </c>
       <c r="AT170" s="4"/>
     </row>
-    <row r="171" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A171" s="2">
         <v>402988</v>
       </c>
@@ -16857,7 +16866,7 @@
       </c>
       <c r="AT171" s="4"/>
     </row>
-    <row r="172" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A172" s="2">
         <v>402989</v>
       </c>
@@ -16969,7 +16978,7 @@
       </c>
       <c r="AT172" s="4"/>
     </row>
-    <row r="173" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A173" s="2">
         <v>402990</v>
       </c>
@@ -17087,7 +17096,7 @@
       </c>
       <c r="AT173" s="4"/>
     </row>
-    <row r="174" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A174" s="2">
         <v>402991</v>
       </c>
@@ -17193,7 +17202,7 @@
       </c>
       <c r="AT174" s="4"/>
     </row>
-    <row r="175" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A175" s="2">
         <v>402992</v>
       </c>
@@ -17305,7 +17314,7 @@
       </c>
       <c r="AT175" s="4"/>
     </row>
-    <row r="176" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A176" s="2">
         <v>402993</v>
       </c>
@@ -17379,7 +17388,7 @@
       <c r="AS176" s="4"/>
       <c r="AT176" s="4"/>
     </row>
-    <row r="177" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A177" s="2">
         <v>402994</v>
       </c>
@@ -17497,7 +17506,7 @@
       </c>
       <c r="AT177" s="4"/>
     </row>
-    <row r="178" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A178" s="2">
         <v>402995</v>
       </c>
@@ -17589,7 +17598,7 @@
       <c r="AS178" s="4"/>
       <c r="AT178" s="4"/>
     </row>
-    <row r="179" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A179" s="2">
         <v>402997</v>
       </c>
@@ -17663,7 +17672,7 @@
       <c r="AS179" s="4"/>
       <c r="AT179" s="4"/>
     </row>
-    <row r="180" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A180" s="2">
         <v>403001</v>
       </c>
@@ -17745,7 +17754,7 @@
       <c r="AS180" s="4"/>
       <c r="AT180" s="4"/>
     </row>
-    <row r="181" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A181" s="2">
         <v>403002</v>
       </c>
@@ -17829,7 +17838,7 @@
       <c r="AS181" s="4"/>
       <c r="AT181" s="4"/>
     </row>
-    <row r="182" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A182" s="2">
         <v>403003</v>
       </c>
@@ -17909,7 +17918,7 @@
       <c r="AS182" s="4"/>
       <c r="AT182" s="4"/>
     </row>
-    <row r="183" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A183" s="2">
         <v>403018</v>
       </c>
@@ -17983,7 +17992,7 @@
       <c r="AS183" s="4"/>
       <c r="AT183" s="4"/>
     </row>
-    <row r="184" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A184" s="2">
         <v>403158</v>
       </c>
@@ -18079,7 +18088,7 @@
       <c r="AS184" s="4"/>
       <c r="AT184" s="4"/>
     </row>
-    <row r="185" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A185" s="2">
         <v>403160</v>
       </c>
@@ -18205,7 +18214,7 @@
       <c r="AS185" s="4"/>
       <c r="AT185" s="4"/>
     </row>
-    <row r="186" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A186" s="2">
         <v>403549</v>
       </c>
@@ -18283,7 +18292,7 @@
       <c r="AS186" s="4"/>
       <c r="AT186" s="4"/>
     </row>
-    <row r="187" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A187" s="2">
         <v>403550</v>
       </c>
@@ -18359,7 +18368,7 @@
       <c r="AS187" s="4"/>
       <c r="AT187" s="4"/>
     </row>
-    <row r="188" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A188" s="2">
         <v>403551</v>
       </c>
@@ -18457,7 +18466,7 @@
       <c r="AS188" s="4"/>
       <c r="AT188" s="4"/>
     </row>
-    <row r="189" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A189" s="2">
         <v>403552</v>
       </c>
@@ -18553,7 +18562,7 @@
       <c r="AS189" s="4"/>
       <c r="AT189" s="4"/>
     </row>
-    <row r="190" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A190" s="2">
         <v>403554</v>
       </c>
@@ -18633,7 +18642,7 @@
       <c r="AS190" s="4"/>
       <c r="AT190" s="4"/>
     </row>
-    <row r="191" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A191" s="2">
         <v>403555</v>
       </c>
@@ -18707,7 +18716,7 @@
       <c r="AS191" s="4"/>
       <c r="AT191" s="4"/>
     </row>
-    <row r="192" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A192" s="2">
         <v>403556</v>
       </c>
@@ -18781,7 +18790,7 @@
       <c r="AS192" s="4"/>
       <c r="AT192" s="4"/>
     </row>
-    <row r="193" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A193" s="2">
         <v>403557</v>
       </c>
@@ -18855,7 +18864,7 @@
       <c r="AS193" s="4"/>
       <c r="AT193" s="4"/>
     </row>
-    <row r="194" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A194" s="2">
         <v>403558</v>
       </c>
@@ -18937,7 +18946,7 @@
       <c r="AS194" s="4"/>
       <c r="AT194" s="4"/>
     </row>
-    <row r="195" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A195" s="2">
         <v>403559</v>
       </c>
@@ -19005,7 +19014,7 @@
       <c r="AS195" s="4"/>
       <c r="AT195" s="4"/>
     </row>
-    <row r="196" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A196" s="2">
         <v>403560</v>
       </c>
@@ -19065,7 +19074,7 @@
       <c r="AS196" s="4"/>
       <c r="AT196" s="4"/>
     </row>
-    <row r="197" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A197" s="2">
         <v>403561</v>
       </c>
@@ -19131,7 +19140,7 @@
       <c r="AS197" s="4"/>
       <c r="AT197" s="4"/>
     </row>
-    <row r="198" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A198" s="2">
         <v>403562</v>
       </c>
@@ -19209,7 +19218,7 @@
       <c r="AS198" s="4"/>
       <c r="AT198" s="4"/>
     </row>
-    <row r="199" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A199" s="2">
         <v>403563</v>
       </c>
@@ -19317,7 +19326,7 @@
       <c r="AS199" s="4"/>
       <c r="AT199" s="4"/>
     </row>
-    <row r="200" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A200" s="2">
         <v>403565</v>
       </c>
@@ -19413,7 +19422,7 @@
       <c r="AS200" s="4"/>
       <c r="AT200" s="4"/>
     </row>
-    <row r="201" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A201" s="2">
         <v>403566</v>
       </c>
@@ -19517,7 +19526,7 @@
       <c r="AS201" s="4"/>
       <c r="AT201" s="4"/>
     </row>
-    <row r="202" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A202" s="2">
         <v>403567</v>
       </c>
@@ -19595,7 +19604,7 @@
       <c r="AS202" s="4"/>
       <c r="AT202" s="4"/>
     </row>
-    <row r="203" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A203" s="2">
         <v>403568</v>
       </c>
@@ -19669,7 +19678,7 @@
       <c r="AS203" s="4"/>
       <c r="AT203" s="4"/>
     </row>
-    <row r="204" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A204" s="2">
         <v>403569</v>
       </c>
@@ -19741,7 +19750,7 @@
       <c r="AS204" s="4"/>
       <c r="AT204" s="4"/>
     </row>
-    <row r="205" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A205" s="2">
         <v>403571</v>
       </c>
@@ -19829,7 +19838,7 @@
       <c r="AS205" s="4"/>
       <c r="AT205" s="4"/>
     </row>
-    <row r="206" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A206" s="2">
         <v>403572</v>
       </c>
@@ -19907,7 +19916,7 @@
       <c r="AS206" s="4"/>
       <c r="AT206" s="4"/>
     </row>
-    <row r="207" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A207" s="2">
         <v>403573</v>
       </c>
@@ -19985,7 +19994,7 @@
       <c r="AS207" s="4"/>
       <c r="AT207" s="4"/>
     </row>
-    <row r="208" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A208" s="2">
         <v>403574</v>
       </c>
@@ -20063,7 +20072,7 @@
       <c r="AS208" s="4"/>
       <c r="AT208" s="4"/>
     </row>
-    <row r="209" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A209" s="2">
         <v>403593</v>
       </c>
@@ -20125,7 +20134,7 @@
       <c r="AS209" s="4"/>
       <c r="AT209" s="4"/>
     </row>
-    <row r="210" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A210" s="2">
         <v>403600</v>
       </c>
@@ -20203,7 +20212,7 @@
       <c r="AS210" s="4"/>
       <c r="AT210" s="4"/>
     </row>
-    <row r="211" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A211" s="2">
         <v>403602</v>
       </c>
@@ -20283,7 +20292,7 @@
       <c r="AS211" s="4"/>
       <c r="AT211" s="4"/>
     </row>
-    <row r="212" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A212" s="2">
         <v>403603</v>
       </c>
@@ -20365,7 +20374,7 @@
       <c r="AS212" s="4"/>
       <c r="AT212" s="4"/>
     </row>
-    <row r="213" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A213" s="2">
         <v>403604</v>
       </c>
@@ -20429,7 +20438,7 @@
       <c r="AS213" s="4"/>
       <c r="AT213" s="4"/>
     </row>
-    <row r="214" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A214" s="2">
         <v>403606</v>
       </c>
@@ -20499,7 +20508,7 @@
       <c r="AS214" s="4"/>
       <c r="AT214" s="4"/>
     </row>
-    <row r="215" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A215" s="2">
         <v>403607</v>
       </c>
@@ -20573,7 +20582,7 @@
       <c r="AS215" s="4"/>
       <c r="AT215" s="4"/>
     </row>
-    <row r="216" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A216" s="2">
         <v>403609</v>
       </c>
@@ -20707,7 +20716,7 @@
       </c>
       <c r="AT216" s="4"/>
     </row>
-    <row r="217" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A217" s="2">
         <v>403610</v>
       </c>
@@ -20841,7 +20850,7 @@
       </c>
       <c r="AT217" s="4"/>
     </row>
-    <row r="218" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A218" s="2">
         <v>403611</v>
       </c>
@@ -20975,7 +20984,7 @@
       </c>
       <c r="AT218" s="4"/>
     </row>
-    <row r="219" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A219" s="2">
         <v>403612</v>
       </c>
@@ -21109,7 +21118,7 @@
       </c>
       <c r="AT219" s="4"/>
     </row>
-    <row r="220" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A220" s="2">
         <v>403613</v>
       </c>
@@ -21229,7 +21238,7 @@
       <c r="AS220" s="4"/>
       <c r="AT220" s="4"/>
     </row>
-    <row r="221" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A221" s="2">
         <v>403614</v>
       </c>
@@ -21307,7 +21316,7 @@
       </c>
       <c r="AT221" s="4"/>
     </row>
-    <row r="222" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A222" s="2">
         <v>403617</v>
       </c>
@@ -21383,7 +21392,7 @@
       <c r="AS222" s="4"/>
       <c r="AT222" s="4"/>
     </row>
-    <row r="223" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A223" s="2">
         <v>403621</v>
       </c>
@@ -21493,7 +21502,7 @@
       <c r="AS223" s="4"/>
       <c r="AT223" s="4"/>
     </row>
-    <row r="224" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A224" s="2">
         <v>403622</v>
       </c>
@@ -21601,7 +21610,7 @@
       <c r="AS224" s="4"/>
       <c r="AT224" s="4"/>
     </row>
-    <row r="225" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A225" s="2">
         <v>403623</v>
       </c>
@@ -21711,7 +21720,7 @@
       <c r="AS225" s="4"/>
       <c r="AT225" s="4"/>
     </row>
-    <row r="226" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A226" s="2">
         <v>403626</v>
       </c>
@@ -21783,7 +21792,7 @@
       <c r="AS226" s="4"/>
       <c r="AT226" s="4"/>
     </row>
-    <row r="227" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A227" s="2">
         <v>404521</v>
       </c>
@@ -21893,7 +21902,7 @@
       </c>
       <c r="AT227" s="4"/>
     </row>
-    <row r="228" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A228" s="2">
         <v>404522</v>
       </c>
@@ -22005,7 +22014,7 @@
       </c>
       <c r="AT228" s="4"/>
     </row>
-    <row r="229" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A229" s="2">
         <v>404523</v>
       </c>
@@ -22117,7 +22126,7 @@
       </c>
       <c r="AT229" s="4"/>
     </row>
-    <row r="230" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A230" s="2">
         <v>404588</v>
       </c>
@@ -22219,7 +22228,7 @@
       </c>
       <c r="AT230" s="4"/>
     </row>
-    <row r="231" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A231" s="2">
         <v>404589</v>
       </c>
@@ -22315,7 +22324,7 @@
       </c>
       <c r="AT231" s="4"/>
     </row>
-    <row r="232" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A232" s="2">
         <v>404671</v>
       </c>
@@ -22385,7 +22394,7 @@
       <c r="AS232" s="4"/>
       <c r="AT232" s="4"/>
     </row>
-    <row r="233" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A233" s="2">
         <v>404722</v>
       </c>
@@ -22453,7 +22462,7 @@
       <c r="AS233" s="4"/>
       <c r="AT233" s="4"/>
     </row>
-    <row r="234" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A234" s="2">
         <v>404723</v>
       </c>
@@ -22523,7 +22532,7 @@
       <c r="AS234" s="4"/>
       <c r="AT234" s="4"/>
     </row>
-    <row r="235" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A235" s="2">
         <v>404724</v>
       </c>
@@ -22607,7 +22616,7 @@
       <c r="AS235" s="4"/>
       <c r="AT235" s="4"/>
     </row>
-    <row r="236" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A236" s="2">
         <v>404725</v>
       </c>
@@ -22693,7 +22702,7 @@
       <c r="AS236" s="4"/>
       <c r="AT236" s="4"/>
     </row>
-    <row r="237" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A237" s="2">
         <v>404791</v>
       </c>
@@ -22755,7 +22764,7 @@
       <c r="AS237" s="4"/>
       <c r="AT237" s="4"/>
     </row>
-    <row r="238" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A238" s="2">
         <v>404869</v>
       </c>
@@ -22865,7 +22874,7 @@
       </c>
       <c r="AT238" s="4"/>
     </row>
-    <row r="239" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A239" s="2">
         <v>404900</v>
       </c>
@@ -22927,7 +22936,7 @@
       <c r="AS239" s="4"/>
       <c r="AT239" s="4"/>
     </row>
-    <row r="240" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A240" s="2">
         <v>404940</v>
       </c>
@@ -23019,7 +23028,7 @@
       <c r="AS240" s="4"/>
       <c r="AT240" s="4"/>
     </row>
-    <row r="241" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A241" s="2">
         <v>405024</v>
       </c>
@@ -23125,7 +23134,7 @@
         <v>14440000</v>
       </c>
     </row>
-    <row r="242" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A242" s="2">
         <v>405087</v>
       </c>
@@ -23195,7 +23204,7 @@
       </c>
       <c r="AT242" s="4"/>
     </row>
-    <row r="243" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A243" s="2">
         <v>405131</v>
       </c>
@@ -23257,7 +23266,7 @@
       <c r="AS243" s="4"/>
       <c r="AT243" s="4"/>
     </row>
-    <row r="244" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A244" s="2">
         <v>405132</v>
       </c>
@@ -23321,7 +23330,7 @@
       <c r="AS244" s="4"/>
       <c r="AT244" s="4"/>
     </row>
-    <row r="245" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A245" s="2">
         <v>405137</v>
       </c>
@@ -23393,7 +23402,7 @@
       <c r="AS245" s="4"/>
       <c r="AT245" s="4"/>
     </row>
-    <row r="246" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A246" s="2">
         <v>405171</v>
       </c>
@@ -23481,7 +23490,7 @@
       <c r="AS246" s="4"/>
       <c r="AT246" s="4"/>
     </row>
-    <row r="247" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A247" s="2">
         <v>405321</v>
       </c>
@@ -23555,7 +23564,7 @@
       <c r="AS247" s="4"/>
       <c r="AT247" s="4"/>
     </row>
-    <row r="248" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A248" s="2">
         <v>405322</v>
       </c>
@@ -23651,7 +23660,7 @@
       <c r="AS248" s="4"/>
       <c r="AT248" s="4"/>
     </row>
-    <row r="249" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A249" s="2">
         <v>405339</v>
       </c>
@@ -23729,7 +23738,7 @@
       <c r="AS249" s="4"/>
       <c r="AT249" s="4"/>
     </row>
-    <row r="250" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A250" s="2">
         <v>405340</v>
       </c>
@@ -23807,7 +23816,7 @@
       <c r="AS250" s="4"/>
       <c r="AT250" s="4"/>
     </row>
-    <row r="251" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A251" s="2">
         <v>405341</v>
       </c>
@@ -23869,7 +23878,7 @@
       <c r="AS251" s="4"/>
       <c r="AT251" s="4"/>
     </row>
-    <row r="252" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A252" s="2">
         <v>405352</v>
       </c>
@@ -23971,7 +23980,7 @@
       <c r="AS252" s="4"/>
       <c r="AT252" s="4"/>
     </row>
-    <row r="253" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A253" s="2">
         <v>405384</v>
       </c>
@@ -24033,7 +24042,7 @@
       </c>
       <c r="AT253" s="4"/>
     </row>
-    <row r="254" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A254" s="2">
         <v>405385</v>
       </c>
@@ -24095,7 +24104,7 @@
       </c>
       <c r="AT254" s="4"/>
     </row>
-    <row r="255" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A255" s="2">
         <v>405495</v>
       </c>
@@ -24191,7 +24200,7 @@
       </c>
       <c r="AT255" s="4"/>
     </row>
-    <row r="256" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A256" s="2">
         <v>405496</v>
       </c>
@@ -24287,7 +24296,7 @@
       </c>
       <c r="AT256" s="4"/>
     </row>
-    <row r="257" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A257" s="2">
         <v>407661</v>
       </c>
@@ -24423,7 +24432,7 @@
       </c>
       <c r="AT257" s="4"/>
     </row>
-    <row r="258" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A258" s="2">
         <v>407662</v>
       </c>
@@ -24535,7 +24544,7 @@
       <c r="AS258" s="4"/>
       <c r="AT258" s="4"/>
     </row>
-    <row r="259" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A259" s="2">
         <v>407663</v>
       </c>
@@ -24613,7 +24622,7 @@
       <c r="AS259" s="4"/>
       <c r="AT259" s="4"/>
     </row>
-    <row r="260" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A260" s="2">
         <v>407664</v>
       </c>
@@ -24693,7 +24702,7 @@
       <c r="AS260" s="4"/>
       <c r="AT260" s="4"/>
     </row>
-    <row r="261" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A261" s="2">
         <v>407665</v>
       </c>
@@ -24755,7 +24764,7 @@
       <c r="AS261" s="4"/>
       <c r="AT261" s="4"/>
     </row>
-    <row r="262" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A262" s="2">
         <v>407666</v>
       </c>
@@ -24881,7 +24890,7 @@
       </c>
       <c r="AT262" s="4"/>
     </row>
-    <row r="263" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A263" s="2">
         <v>407667</v>
       </c>
@@ -25005,7 +25014,7 @@
       <c r="AS263" s="4"/>
       <c r="AT263" s="4"/>
     </row>
-    <row r="264" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A264" s="2">
         <v>407668</v>
       </c>
@@ -25131,7 +25140,7 @@
       <c r="AS264" s="4"/>
       <c r="AT264" s="4"/>
     </row>
-    <row r="265" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A265" s="2">
         <v>407670</v>
       </c>
@@ -25207,7 +25216,7 @@
       <c r="AS265" s="4"/>
       <c r="AT265" s="4"/>
     </row>
-    <row r="266" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A266" s="2">
         <v>407671</v>
       </c>
@@ -25283,7 +25292,7 @@
       <c r="AS266" s="4"/>
       <c r="AT266" s="4"/>
     </row>
-    <row r="267" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A267" s="2">
         <v>407672</v>
       </c>
@@ -25345,7 +25354,7 @@
       <c r="AS267" s="4"/>
       <c r="AT267" s="4"/>
     </row>
-    <row r="268" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A268" s="2">
         <v>407673</v>
       </c>
@@ -25439,7 +25448,7 @@
       <c r="AS268" s="4"/>
       <c r="AT268" s="4"/>
     </row>
-    <row r="269" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A269" s="2">
         <v>407674</v>
       </c>
@@ -25533,7 +25542,7 @@
       <c r="AS269" s="4"/>
       <c r="AT269" s="4"/>
     </row>
-    <row r="270" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A270" s="2">
         <v>407675</v>
       </c>
@@ -25627,7 +25636,7 @@
       <c r="AS270" s="4"/>
       <c r="AT270" s="4"/>
     </row>
-    <row r="271" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A271" s="2">
         <v>407676</v>
       </c>
@@ -25745,7 +25754,7 @@
       </c>
       <c r="AT271" s="4"/>
     </row>
-    <row r="272" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A272" s="2">
         <v>407677</v>
       </c>
@@ -25881,7 +25890,7 @@
       </c>
       <c r="AT272" s="4"/>
     </row>
-    <row r="273" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A273" s="2">
         <v>407678</v>
       </c>
@@ -26017,7 +26026,7 @@
       </c>
       <c r="AT273" s="4"/>
     </row>
-    <row r="274" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A274" s="2">
         <v>407679</v>
       </c>
@@ -26153,7 +26162,7 @@
       </c>
       <c r="AT274" s="4"/>
     </row>
-    <row r="275" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A275" s="2">
         <v>407681</v>
       </c>
@@ -26281,7 +26290,7 @@
       </c>
       <c r="AT275" s="4"/>
     </row>
-    <row r="276" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A276" s="2">
         <v>407682</v>
       </c>
@@ -26345,7 +26354,7 @@
       <c r="AS276" s="4"/>
       <c r="AT276" s="4"/>
     </row>
-    <row r="277" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A277" s="2">
         <v>407683</v>
       </c>
@@ -26455,7 +26464,7 @@
       <c r="AS277" s="4"/>
       <c r="AT277" s="4"/>
     </row>
-    <row r="278" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A278" s="2">
         <v>407684</v>
       </c>
@@ -26517,7 +26526,7 @@
       <c r="AS278" s="4"/>
       <c r="AT278" s="4"/>
     </row>
-    <row r="279" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A279" s="2">
         <v>407685</v>
       </c>
@@ -26579,7 +26588,7 @@
       <c r="AS279" s="4"/>
       <c r="AT279" s="4"/>
     </row>
-    <row r="280" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A280" s="2">
         <v>407686</v>
       </c>
@@ -26641,7 +26650,7 @@
       <c r="AS280" s="4"/>
       <c r="AT280" s="4"/>
     </row>
-    <row r="281" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A281" s="2">
         <v>407687</v>
       </c>
@@ -26771,7 +26780,7 @@
       </c>
       <c r="AT281" s="4"/>
     </row>
-    <row r="282" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A282" s="2">
         <v>407688</v>
       </c>
@@ -26833,7 +26842,7 @@
       <c r="AS282" s="4"/>
       <c r="AT282" s="4"/>
     </row>
-    <row r="283" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A283" s="2">
         <v>407689</v>
       </c>
@@ -26951,7 +26960,7 @@
       <c r="AS283" s="4"/>
       <c r="AT283" s="4"/>
     </row>
-    <row r="284" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A284" s="2">
         <v>407690</v>
       </c>
@@ -27083,7 +27092,7 @@
       </c>
       <c r="AT284" s="4"/>
     </row>
-    <row r="285" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A285" s="2">
         <v>407692</v>
       </c>
@@ -27145,7 +27154,7 @@
       <c r="AS285" s="4"/>
       <c r="AT285" s="4"/>
     </row>
-    <row r="286" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A286" s="2">
         <v>407693</v>
       </c>
@@ -27209,7 +27218,7 @@
       <c r="AS286" s="4"/>
       <c r="AT286" s="4"/>
     </row>
-    <row r="287" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A287" s="2">
         <v>407694</v>
       </c>
@@ -27271,7 +27280,7 @@
       <c r="AS287" s="4"/>
       <c r="AT287" s="4"/>
     </row>
-    <row r="288" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A288" s="2">
         <v>407695</v>
       </c>
@@ -27333,7 +27342,7 @@
       <c r="AS288" s="4"/>
       <c r="AT288" s="4"/>
     </row>
-    <row r="289" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A289" s="2">
         <v>407696</v>
       </c>
@@ -27395,7 +27404,7 @@
       <c r="AS289" s="4"/>
       <c r="AT289" s="4"/>
     </row>
-    <row r="290" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A290" s="2">
         <v>407697</v>
       </c>
@@ -27457,7 +27466,7 @@
       <c r="AS290" s="4"/>
       <c r="AT290" s="4"/>
     </row>
-    <row r="291" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A291" s="2">
         <v>407698</v>
       </c>
@@ -27519,7 +27528,7 @@
       <c r="AS291" s="4"/>
       <c r="AT291" s="4"/>
     </row>
-    <row r="292" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A292" s="2">
         <v>407699</v>
       </c>
@@ -27581,7 +27590,7 @@
       <c r="AS292" s="4"/>
       <c r="AT292" s="4"/>
     </row>
-    <row r="293" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A293" s="2">
         <v>407700</v>
       </c>
@@ -27643,7 +27652,7 @@
       <c r="AS293" s="4"/>
       <c r="AT293" s="4"/>
     </row>
-    <row r="294" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A294" s="2">
         <v>407701</v>
       </c>
@@ -27705,7 +27714,7 @@
       <c r="AS294" s="4"/>
       <c r="AT294" s="4"/>
     </row>
-    <row r="295" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A295" s="2">
         <v>407703</v>
       </c>
@@ -27767,7 +27776,7 @@
       <c r="AS295" s="4"/>
       <c r="AT295" s="4"/>
     </row>
-    <row r="296" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A296" s="2">
         <v>407704</v>
       </c>
@@ -27829,7 +27838,7 @@
       <c r="AS296" s="4"/>
       <c r="AT296" s="4"/>
     </row>
-    <row r="297" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A297" s="2">
         <v>407705</v>
       </c>
@@ -27891,7 +27900,7 @@
       <c r="AS297" s="4"/>
       <c r="AT297" s="4"/>
     </row>
-    <row r="298" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A298" s="2">
         <v>407706</v>
       </c>
@@ -27953,7 +27962,7 @@
       <c r="AS298" s="4"/>
       <c r="AT298" s="4"/>
     </row>
-    <row r="299" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A299" s="2">
         <v>407707</v>
       </c>
@@ -28015,7 +28024,7 @@
       <c r="AS299" s="4"/>
       <c r="AT299" s="4"/>
     </row>
-    <row r="300" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A300" s="2">
         <v>407708</v>
       </c>
@@ -28077,7 +28086,7 @@
       <c r="AS300" s="4"/>
       <c r="AT300" s="4"/>
     </row>
-    <row r="301" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A301" s="2">
         <v>407709</v>
       </c>
@@ -28139,7 +28148,7 @@
       <c r="AS301" s="4"/>
       <c r="AT301" s="4"/>
     </row>
-    <row r="302" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A302" s="2">
         <v>407710</v>
       </c>
@@ -28201,7 +28210,7 @@
       <c r="AS302" s="4"/>
       <c r="AT302" s="4"/>
     </row>
-    <row r="303" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A303" s="2">
         <v>407711</v>
       </c>
@@ -28263,7 +28272,7 @@
       <c r="AS303" s="4"/>
       <c r="AT303" s="4"/>
     </row>
-    <row r="304" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A304" s="2">
         <v>407712</v>
       </c>
@@ -28347,7 +28356,7 @@
       <c r="AS304" s="4"/>
       <c r="AT304" s="4"/>
     </row>
-    <row r="305" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A305" s="2">
         <v>407715</v>
       </c>
@@ -28427,7 +28436,7 @@
       <c r="AS305" s="4"/>
       <c r="AT305" s="4"/>
     </row>
-    <row r="306" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A306" s="2">
         <v>407716</v>
       </c>
@@ -28507,7 +28516,7 @@
       <c r="AS306" s="4"/>
       <c r="AT306" s="4"/>
     </row>
-    <row r="307" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A307" s="2">
         <v>407717</v>
       </c>
@@ -28587,7 +28596,7 @@
       <c r="AS307" s="4"/>
       <c r="AT307" s="4"/>
     </row>
-    <row r="308" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A308" s="2">
         <v>407718</v>
       </c>
@@ -28667,7 +28676,7 @@
       </c>
       <c r="AT308" s="4"/>
     </row>
-    <row r="309" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A309" s="2">
         <v>407719</v>
       </c>
@@ -28745,7 +28754,7 @@
       <c r="AS309" s="4"/>
       <c r="AT309" s="4"/>
     </row>
-    <row r="310" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A310" s="2">
         <v>407720</v>
       </c>
@@ -28871,7 +28880,7 @@
       <c r="AS310" s="4"/>
       <c r="AT310" s="4"/>
     </row>
-    <row r="311" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A311" s="2">
         <v>407721</v>
       </c>
@@ -28947,7 +28956,7 @@
       <c r="AS311" s="4"/>
       <c r="AT311" s="4"/>
     </row>
-    <row r="312" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A312" s="2">
         <v>407722</v>
       </c>
@@ -29023,7 +29032,7 @@
       <c r="AS312" s="4"/>
       <c r="AT312" s="4"/>
     </row>
-    <row r="313" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A313" s="2">
         <v>407723</v>
       </c>
@@ -29157,7 +29166,7 @@
       </c>
       <c r="AT313" s="4"/>
     </row>
-    <row r="314" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A314" s="2">
         <v>407724</v>
       </c>
@@ -29291,7 +29300,7 @@
       </c>
       <c r="AT314" s="4"/>
     </row>
-    <row r="315" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A315" s="2">
         <v>407726</v>
       </c>
@@ -29427,7 +29436,7 @@
       </c>
       <c r="AT315" s="4"/>
     </row>
-    <row r="316" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A316" s="2">
         <v>407727</v>
       </c>
@@ -29555,7 +29564,7 @@
       </c>
       <c r="AT316" s="4"/>
     </row>
-    <row r="317" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A317" s="2">
         <v>407728</v>
       </c>
@@ -29633,7 +29642,7 @@
       <c r="AS317" s="4"/>
       <c r="AT317" s="4"/>
     </row>
-    <row r="318" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A318" s="2">
         <v>407729</v>
       </c>
@@ -29737,7 +29746,7 @@
       </c>
       <c r="AT318" s="4"/>
     </row>
-    <row r="319" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A319" s="2">
         <v>407730</v>
       </c>
@@ -29803,7 +29812,7 @@
       <c r="AS319" s="4"/>
       <c r="AT319" s="4"/>
     </row>
-    <row r="320" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A320" s="2">
         <v>407731</v>
       </c>
@@ -29933,7 +29942,7 @@
       </c>
       <c r="AT320" s="4"/>
     </row>
-    <row r="321" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A321" s="2">
         <v>407732</v>
       </c>
@@ -30017,7 +30026,7 @@
       </c>
       <c r="AT321" s="4"/>
     </row>
-    <row r="322" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A322" s="2">
         <v>407733</v>
       </c>
@@ -30079,7 +30088,7 @@
       <c r="AS322" s="4"/>
       <c r="AT322" s="4"/>
     </row>
-    <row r="323" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A323" s="2">
         <v>407734</v>
       </c>
@@ -30203,7 +30212,7 @@
       </c>
       <c r="AT323" s="4"/>
     </row>
-    <row r="324" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A324" s="2">
         <v>407735</v>
       </c>
@@ -30331,7 +30340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A325" s="2">
         <v>407737</v>
       </c>
@@ -30465,7 +30474,7 @@
         <v>4608000</v>
       </c>
     </row>
-    <row r="326" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A326" s="2">
         <v>407738</v>
       </c>
@@ -30561,7 +30570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A327" s="2">
         <v>407739</v>
       </c>
@@ -30663,7 +30672,7 @@
       </c>
       <c r="AT327" s="4"/>
     </row>
-    <row r="328" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A328" s="2">
         <v>407740</v>
       </c>
@@ -30747,7 +30756,7 @@
       </c>
       <c r="AT328" s="4"/>
     </row>
-    <row r="329" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A329" s="2">
         <v>407741</v>
       </c>
@@ -30859,7 +30868,7 @@
       </c>
       <c r="AT329" s="4"/>
     </row>
-    <row r="330" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A330" s="2">
         <v>407742</v>
       </c>
@@ -30969,7 +30978,7 @@
       </c>
       <c r="AT330" s="4"/>
     </row>
-    <row r="331" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A331" s="2">
         <v>407743</v>
       </c>
@@ -31047,7 +31056,7 @@
       <c r="AS331" s="4"/>
       <c r="AT331" s="4"/>
     </row>
-    <row r="332" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A332" s="2">
         <v>407744</v>
       </c>
@@ -31129,7 +31138,7 @@
       <c r="AS332" s="4"/>
       <c r="AT332" s="4"/>
     </row>
-    <row r="333" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A333" s="2">
         <v>407745</v>
       </c>
@@ -31191,7 +31200,7 @@
       <c r="AS333" s="4"/>
       <c r="AT333" s="4"/>
     </row>
-    <row r="334" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A334" s="2">
         <v>407746</v>
       </c>
@@ -31321,7 +31330,7 @@
       <c r="AS334" s="4"/>
       <c r="AT334" s="4"/>
     </row>
-    <row r="335" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A335" s="2">
         <v>407748</v>
       </c>
@@ -31403,7 +31412,7 @@
       </c>
       <c r="AT335" s="4"/>
     </row>
-    <row r="336" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A336" s="2">
         <v>407749</v>
       </c>
@@ -31533,7 +31542,7 @@
       <c r="AS336" s="4"/>
       <c r="AT336" s="4"/>
     </row>
-    <row r="337" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A337" s="2">
         <v>407750</v>
       </c>
@@ -31663,7 +31672,7 @@
       <c r="AS337" s="4"/>
       <c r="AT337" s="4"/>
     </row>
-    <row r="338" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A338" s="2">
         <v>407751</v>
       </c>
@@ -31725,7 +31734,7 @@
       <c r="AS338" s="4"/>
       <c r="AT338" s="4"/>
     </row>
-    <row r="339" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A339" s="2">
         <v>407752</v>
       </c>
@@ -31787,7 +31796,7 @@
       <c r="AS339" s="4"/>
       <c r="AT339" s="4"/>
     </row>
-    <row r="340" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A340" s="2">
         <v>407753</v>
       </c>
@@ -31849,7 +31858,7 @@
       <c r="AS340" s="4"/>
       <c r="AT340" s="4"/>
     </row>
-    <row r="341" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A341" s="2">
         <v>407754</v>
       </c>
@@ -31911,7 +31920,7 @@
       <c r="AS341" s="4"/>
       <c r="AT341" s="4"/>
     </row>
-    <row r="342" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A342" s="2">
         <v>407755</v>
       </c>
@@ -31973,7 +31982,7 @@
       <c r="AS342" s="4"/>
       <c r="AT342" s="4"/>
     </row>
-    <row r="343" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A343" s="2">
         <v>407756</v>
       </c>
@@ -32035,7 +32044,7 @@
       <c r="AS343" s="4"/>
       <c r="AT343" s="4"/>
     </row>
-    <row r="344" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A344" s="2">
         <v>407757</v>
       </c>
@@ -32097,7 +32106,7 @@
       <c r="AS344" s="4"/>
       <c r="AT344" s="4"/>
     </row>
-    <row r="345" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A345" s="2">
         <v>407759</v>
       </c>
@@ -32159,7 +32168,7 @@
       <c r="AS345" s="4"/>
       <c r="AT345" s="4"/>
     </row>
-    <row r="346" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A346" s="2">
         <v>407760</v>
       </c>
@@ -32221,7 +32230,7 @@
       <c r="AS346" s="4"/>
       <c r="AT346" s="4"/>
     </row>
-    <row r="347" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A347" s="2">
         <v>407761</v>
       </c>
@@ -32283,7 +32292,7 @@
       <c r="AS347" s="4"/>
       <c r="AT347" s="4"/>
     </row>
-    <row r="348" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A348" s="2">
         <v>407762</v>
       </c>
@@ -32345,7 +32354,7 @@
       <c r="AS348" s="4"/>
       <c r="AT348" s="4"/>
     </row>
-    <row r="349" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A349" s="2">
         <v>407763</v>
       </c>
@@ -32407,7 +32416,7 @@
       <c r="AS349" s="4"/>
       <c r="AT349" s="4"/>
     </row>
-    <row r="350" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A350" s="2">
         <v>407764</v>
       </c>
@@ -32469,7 +32478,7 @@
       <c r="AS350" s="4"/>
       <c r="AT350" s="4"/>
     </row>
-    <row r="351" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A351" s="2">
         <v>407765</v>
       </c>
@@ -32531,7 +32540,7 @@
       <c r="AS351" s="4"/>
       <c r="AT351" s="4"/>
     </row>
-    <row r="352" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A352" s="2">
         <v>407766</v>
       </c>
@@ -32593,7 +32602,7 @@
       <c r="AS352" s="4"/>
       <c r="AT352" s="4"/>
     </row>
-    <row r="353" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A353" s="2">
         <v>407767</v>
       </c>
@@ -32655,7 +32664,7 @@
       <c r="AS353" s="4"/>
       <c r="AT353" s="4"/>
     </row>
-    <row r="354" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A354" s="2">
         <v>407768</v>
       </c>
@@ -32717,7 +32726,7 @@
       <c r="AS354" s="4"/>
       <c r="AT354" s="4"/>
     </row>
-    <row r="355" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A355" s="2">
         <v>407770</v>
       </c>
@@ -32793,7 +32802,7 @@
       <c r="AS355" s="4"/>
       <c r="AT355" s="4"/>
     </row>
-    <row r="356" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A356" s="2">
         <v>407771</v>
       </c>
@@ -32919,7 +32928,7 @@
       <c r="AS356" s="4"/>
       <c r="AT356" s="4"/>
     </row>
-    <row r="357" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A357" s="2">
         <v>407772</v>
       </c>
@@ -32997,7 +33006,7 @@
       <c r="AS357" s="4"/>
       <c r="AT357" s="4"/>
     </row>
-    <row r="358" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A358" s="2">
         <v>407773</v>
       </c>
@@ -33123,7 +33132,7 @@
       <c r="AS358" s="4"/>
       <c r="AT358" s="4"/>
     </row>
-    <row r="359" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A359" s="2">
         <v>407774</v>
       </c>
@@ -33249,7 +33258,7 @@
       <c r="AS359" s="4"/>
       <c r="AT359" s="4"/>
     </row>
-    <row r="360" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A360" s="2">
         <v>407775</v>
       </c>
@@ -33311,7 +33320,7 @@
       <c r="AS360" s="4"/>
       <c r="AT360" s="4"/>
     </row>
-    <row r="361" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A361" s="2">
         <v>407776</v>
       </c>
@@ -33437,7 +33446,7 @@
       <c r="AS361" s="4"/>
       <c r="AT361" s="4"/>
     </row>
-    <row r="362" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A362" s="2">
         <v>407777</v>
       </c>
@@ -33517,7 +33526,7 @@
       <c r="AS362" s="4"/>
       <c r="AT362" s="4"/>
     </row>
-    <row r="363" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A363" s="2">
         <v>407778</v>
       </c>
@@ -33579,7 +33588,7 @@
       <c r="AS363" s="4"/>
       <c r="AT363" s="4"/>
     </row>
-    <row r="364" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A364" s="2">
         <v>407779</v>
       </c>
@@ -33657,7 +33666,7 @@
       <c r="AS364" s="4"/>
       <c r="AT364" s="4"/>
     </row>
-    <row r="365" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A365" s="2">
         <v>407781</v>
       </c>
@@ -33781,7 +33790,7 @@
       <c r="AS365" s="4"/>
       <c r="AT365" s="4"/>
     </row>
-    <row r="366" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A366" s="2">
         <v>407782</v>
       </c>
@@ -33907,7 +33916,7 @@
       <c r="AS366" s="4"/>
       <c r="AT366" s="4"/>
     </row>
-    <row r="367" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A367" s="2">
         <v>407783</v>
       </c>
@@ -34033,7 +34042,7 @@
       <c r="AS367" s="4"/>
       <c r="AT367" s="4"/>
     </row>
-    <row r="368" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A368" s="2">
         <v>407784</v>
       </c>
@@ -34111,7 +34120,7 @@
       <c r="AS368" s="4"/>
       <c r="AT368" s="4"/>
     </row>
-    <row r="369" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A369" s="2">
         <v>407785</v>
       </c>
@@ -34189,7 +34198,7 @@
       <c r="AS369" s="4"/>
       <c r="AT369" s="4"/>
     </row>
-    <row r="370" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A370" s="2">
         <v>407788</v>
       </c>
@@ -34267,7 +34276,7 @@
       <c r="AS370" s="4"/>
       <c r="AT370" s="4"/>
     </row>
-    <row r="371" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A371" s="2">
         <v>407789</v>
       </c>
@@ -34345,7 +34354,7 @@
       <c r="AS371" s="4"/>
       <c r="AT371" s="4"/>
     </row>
-    <row r="372" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A372" s="2">
         <v>407790</v>
       </c>
@@ -34423,7 +34432,7 @@
       <c r="AS372" s="4"/>
       <c r="AT372" s="4"/>
     </row>
-    <row r="373" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A373" s="2">
         <v>407792</v>
       </c>
@@ -34539,7 +34548,7 @@
       </c>
       <c r="AT373" s="4"/>
     </row>
-    <row r="374" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A374" s="2">
         <v>407793</v>
       </c>
@@ -34673,7 +34682,7 @@
       </c>
       <c r="AT374" s="4"/>
     </row>
-    <row r="375" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A375" s="2">
         <v>407794</v>
       </c>
@@ -34807,7 +34816,7 @@
       </c>
       <c r="AT375" s="4"/>
     </row>
-    <row r="376" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A376" s="2">
         <v>407795</v>
       </c>
@@ -34903,7 +34912,7 @@
       </c>
       <c r="AT376" s="4"/>
     </row>
-    <row r="377" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A377" s="2">
         <v>407796</v>
       </c>
@@ -34987,7 +34996,7 @@
       </c>
       <c r="AT377" s="4"/>
     </row>
-    <row r="378" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A378" s="2">
         <v>407797</v>
       </c>
@@ -35113,7 +35122,7 @@
       </c>
       <c r="AT378" s="4"/>
     </row>
-    <row r="379" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A379" s="2">
         <v>407798</v>
       </c>
@@ -35239,7 +35248,7 @@
       <c r="AS379" s="4"/>
       <c r="AT379" s="4"/>
     </row>
-    <row r="380" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A380" s="2">
         <v>407799</v>
       </c>
@@ -35305,7 +35314,7 @@
       <c r="AS380" s="4"/>
       <c r="AT380" s="4"/>
     </row>
-    <row r="381" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A381" s="2">
         <v>407800</v>
       </c>
@@ -35369,7 +35378,7 @@
       <c r="AS381" s="4"/>
       <c r="AT381" s="4"/>
     </row>
-    <row r="382" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A382" s="2">
         <v>407801</v>
       </c>
@@ -35431,7 +35440,7 @@
       <c r="AS382" s="4"/>
       <c r="AT382" s="4"/>
     </row>
-    <row r="383" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A383" s="2">
         <v>407803</v>
       </c>
@@ -35493,7 +35502,7 @@
       <c r="AS383" s="4"/>
       <c r="AT383" s="4"/>
     </row>
-    <row r="384" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A384" s="2">
         <v>407804</v>
       </c>
@@ -35557,7 +35566,7 @@
       <c r="AS384" s="4"/>
       <c r="AT384" s="4"/>
     </row>
-    <row r="385" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A385" s="2">
         <v>407805</v>
       </c>
@@ -35651,7 +35660,7 @@
       <c r="AS385" s="4"/>
       <c r="AT385" s="4"/>
     </row>
-    <row r="386" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A386" s="2">
         <v>407806</v>
       </c>
@@ -35713,7 +35722,7 @@
       <c r="AS386" s="4"/>
       <c r="AT386" s="4"/>
     </row>
-    <row r="387" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A387" s="2">
         <v>407807</v>
       </c>
@@ -35777,7 +35786,7 @@
       <c r="AS387" s="4"/>
       <c r="AT387" s="4"/>
     </row>
-    <row r="388" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A388" s="2">
         <v>407808</v>
       </c>
@@ -35861,7 +35870,7 @@
       </c>
       <c r="AT388" s="4"/>
     </row>
-    <row r="389" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A389" s="2">
         <v>407809</v>
       </c>
@@ -35939,7 +35948,7 @@
       <c r="AS389" s="4"/>
       <c r="AT389" s="4"/>
     </row>
-    <row r="390" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A390" s="2">
         <v>407810</v>
       </c>
@@ -36043,7 +36052,7 @@
       </c>
       <c r="AT390" s="4"/>
     </row>
-    <row r="391" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A391" s="2">
         <v>407811</v>
       </c>
@@ -36147,7 +36156,7 @@
       </c>
       <c r="AT391" s="4"/>
     </row>
-    <row r="392" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A392" s="2">
         <v>407812</v>
       </c>
@@ -36211,7 +36220,7 @@
       <c r="AS392" s="4"/>
       <c r="AT392" s="4"/>
     </row>
-    <row r="393" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A393" s="2">
         <v>407814</v>
       </c>
@@ -36273,7 +36282,7 @@
       <c r="AS393" s="4"/>
       <c r="AT393" s="4"/>
     </row>
-    <row r="394" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A394" s="2">
         <v>407815</v>
       </c>
@@ -36339,7 +36348,7 @@
       <c r="AS394" s="4"/>
       <c r="AT394" s="4"/>
     </row>
-    <row r="395" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A395" s="2">
         <v>407967</v>
       </c>
@@ -36415,7 +36424,7 @@
       <c r="AS395" s="4"/>
       <c r="AT395" s="4"/>
     </row>
-    <row r="396" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A396" s="2">
         <v>407969</v>
       </c>
@@ -36491,7 +36500,7 @@
       <c r="AS396" s="4"/>
       <c r="AT396" s="4"/>
     </row>
-    <row r="397" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A397" s="2">
         <v>407970</v>
       </c>
@@ -36567,7 +36576,7 @@
       <c r="AS397" s="4"/>
       <c r="AT397" s="4"/>
     </row>
-    <row r="398" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A398" s="2">
         <v>407971</v>
       </c>
@@ -36643,7 +36652,7 @@
       <c r="AS398" s="4"/>
       <c r="AT398" s="4"/>
     </row>
-    <row r="399" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A399" s="2">
         <v>407972</v>
       </c>
@@ -36707,7 +36716,7 @@
       <c r="AS399" s="4"/>
       <c r="AT399" s="4"/>
     </row>
-    <row r="400" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A400" s="2">
         <v>407973</v>
       </c>
@@ -36803,7 +36812,7 @@
       <c r="AS400" s="4"/>
       <c r="AT400" s="4"/>
     </row>
-    <row r="401" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A401" s="2">
         <v>407974</v>
       </c>
@@ -36885,7 +36894,7 @@
       <c r="AS401" s="4"/>
       <c r="AT401" s="4"/>
     </row>
-    <row r="402" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A402" s="2">
         <v>407975</v>
       </c>
@@ -36977,7 +36986,7 @@
       <c r="AS402" s="4"/>
       <c r="AT402" s="4"/>
     </row>
-    <row r="403" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A403" s="2">
         <v>407976</v>
       </c>
@@ -37071,7 +37080,7 @@
       <c r="AS403" s="4"/>
       <c r="AT403" s="4"/>
     </row>
-    <row r="404" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A404" s="2">
         <v>407977</v>
       </c>
@@ -37149,7 +37158,7 @@
       <c r="AS404" s="4"/>
       <c r="AT404" s="4"/>
     </row>
-    <row r="405" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A405" s="2">
         <v>407978</v>
       </c>
@@ -37211,7 +37220,7 @@
       <c r="AS405" s="4"/>
       <c r="AT405" s="4"/>
     </row>
-    <row r="406" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A406" s="2">
         <v>407980</v>
       </c>
@@ -37329,7 +37338,7 @@
       <c r="AS406" s="4"/>
       <c r="AT406" s="4"/>
     </row>
-    <row r="407" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A407" s="2">
         <v>408520</v>
       </c>
@@ -37409,7 +37418,7 @@
       <c r="AS407" s="4"/>
       <c r="AT407" s="4"/>
     </row>
-    <row r="408" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A408" s="2">
         <v>408521</v>
       </c>
@@ -37483,7 +37492,7 @@
       <c r="AS408" s="4"/>
       <c r="AT408" s="4"/>
     </row>
-    <row r="409" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A409" s="2">
         <v>408522</v>
       </c>
@@ -37557,7 +37566,7 @@
       <c r="AS409" s="4"/>
       <c r="AT409" s="4"/>
     </row>
-    <row r="410" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A410" s="2">
         <v>408525</v>
       </c>
@@ -37619,7 +37628,7 @@
       <c r="AS410" s="4"/>
       <c r="AT410" s="4"/>
     </row>
-    <row r="411" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A411" s="2">
         <v>408526</v>
       </c>
@@ -37699,7 +37708,7 @@
       <c r="AS411" s="4"/>
       <c r="AT411" s="4"/>
     </row>
-    <row r="412" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A412" s="2">
         <v>408527</v>
       </c>
@@ -37799,7 +37808,7 @@
       <c r="AS412" s="4"/>
       <c r="AT412" s="4"/>
     </row>
-    <row r="413" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A413" s="2">
         <v>408528</v>
       </c>
@@ -37877,7 +37886,7 @@
       <c r="AS413" s="4"/>
       <c r="AT413" s="4"/>
     </row>
-    <row r="414" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A414" s="2">
         <v>408529</v>
       </c>
@@ -37955,7 +37964,7 @@
       <c r="AS414" s="4"/>
       <c r="AT414" s="4"/>
     </row>
-    <row r="415" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A415" s="2">
         <v>408530</v>
       </c>
@@ -38019,7 +38028,7 @@
       <c r="AS415" s="4"/>
       <c r="AT415" s="4"/>
     </row>
-    <row r="416" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A416" s="2">
         <v>408531</v>
       </c>
@@ -38097,7 +38106,7 @@
       <c r="AS416" s="4"/>
       <c r="AT416" s="4"/>
     </row>
-    <row r="417" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A417" s="2">
         <v>408532</v>
       </c>
@@ -38203,7 +38212,7 @@
       <c r="AS417" s="4"/>
       <c r="AT417" s="4"/>
     </row>
-    <row r="418" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A418" s="2">
         <v>408533</v>
       </c>
@@ -38267,7 +38276,7 @@
       <c r="AS418" s="4"/>
       <c r="AT418" s="4"/>
     </row>
-    <row r="419" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A419" s="2">
         <v>408534</v>
       </c>
@@ -38327,7 +38336,7 @@
       <c r="AS419" s="4"/>
       <c r="AT419" s="4"/>
     </row>
-    <row r="420" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A420" s="2">
         <v>408536</v>
       </c>
@@ -38389,7 +38398,7 @@
       <c r="AS420" s="4"/>
       <c r="AT420" s="4"/>
     </row>
-    <row r="421" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A421" s="2">
         <v>408537</v>
       </c>
@@ -38455,7 +38464,7 @@
       <c r="AS421" s="4"/>
       <c r="AT421" s="4"/>
     </row>
-    <row r="422" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A422" s="2">
         <v>408538</v>
       </c>
@@ -38517,7 +38526,7 @@
       <c r="AS422" s="4"/>
       <c r="AT422" s="4"/>
     </row>
-    <row r="423" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A423" s="2">
         <v>408539</v>
       </c>
@@ -38581,7 +38590,7 @@
       <c r="AS423" s="4"/>
       <c r="AT423" s="4"/>
     </row>
-    <row r="424" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A424" s="2">
         <v>408540</v>
       </c>
@@ -38645,7 +38654,7 @@
       <c r="AS424" s="4"/>
       <c r="AT424" s="4"/>
     </row>
-    <row r="425" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A425" s="2">
         <v>408541</v>
       </c>
@@ -38705,7 +38714,7 @@
       <c r="AS425" s="4"/>
       <c r="AT425" s="4"/>
     </row>
-    <row r="426" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A426" s="2">
         <v>408542</v>
       </c>
@@ -38769,7 +38778,7 @@
       <c r="AS426" s="4"/>
       <c r="AT426" s="4"/>
     </row>
-    <row r="427" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A427" s="2">
         <v>408543</v>
       </c>
@@ -38831,7 +38840,7 @@
       <c r="AS427" s="4"/>
       <c r="AT427" s="4"/>
     </row>
-    <row r="428" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A428" s="2">
         <v>408544</v>
       </c>
@@ -38907,7 +38916,7 @@
       <c r="AS428" s="4"/>
       <c r="AT428" s="4"/>
     </row>
-    <row r="429" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A429" s="2">
         <v>408545</v>
       </c>
@@ -38983,7 +38992,7 @@
       <c r="AS429" s="4"/>
       <c r="AT429" s="4"/>
     </row>
-    <row r="430" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A430" s="2">
         <v>408547</v>
       </c>
@@ -39059,7 +39068,7 @@
       <c r="AS430" s="4"/>
       <c r="AT430" s="4"/>
     </row>
-    <row r="431" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A431" s="2">
         <v>408548</v>
       </c>
@@ -39131,7 +39140,7 @@
       <c r="AS431" s="4"/>
       <c r="AT431" s="4"/>
     </row>
-    <row r="432" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A432" s="2">
         <v>408549</v>
       </c>
@@ -39213,7 +39222,7 @@
       <c r="AS432" s="4"/>
       <c r="AT432" s="4"/>
     </row>
-    <row r="433" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A433" s="2">
         <v>408550</v>
       </c>
@@ -39323,7 +39332,7 @@
       <c r="AS433" s="4"/>
       <c r="AT433" s="4"/>
     </row>
-    <row r="434" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A434" s="2">
         <v>408551</v>
       </c>
@@ -39445,7 +39454,7 @@
       <c r="AS434" s="4"/>
       <c r="AT434" s="4"/>
     </row>
-    <row r="435" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A435" s="2">
         <v>408552</v>
       </c>
@@ -39567,7 +39576,7 @@
       <c r="AS435" s="4"/>
       <c r="AT435" s="4"/>
     </row>
-    <row r="436" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A436" s="2">
         <v>408553</v>
       </c>
@@ -39671,7 +39680,7 @@
       <c r="AS436" s="4"/>
       <c r="AT436" s="4"/>
     </row>
-    <row r="437" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A437" s="2">
         <v>408554</v>
       </c>
@@ -39769,7 +39778,7 @@
       <c r="AS437" s="4"/>
       <c r="AT437" s="4"/>
     </row>
-    <row r="438" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A438" s="2">
         <v>408555</v>
       </c>
@@ -39863,7 +39872,7 @@
       <c r="AS438" s="4"/>
       <c r="AT438" s="4"/>
     </row>
-    <row r="439" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A439" s="2">
         <v>409777</v>
       </c>
@@ -39943,7 +39952,7 @@
       </c>
       <c r="AT439" s="4"/>
     </row>
-    <row r="440" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A440" s="2">
         <v>409778</v>
       </c>
@@ -40081,7 +40090,7 @@
       </c>
       <c r="AT440" s="4"/>
     </row>
-    <row r="441" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A441" s="2">
         <v>409779</v>
       </c>
@@ -40219,7 +40228,7 @@
       </c>
       <c r="AT441" s="4"/>
     </row>
-    <row r="442" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A442" s="2">
         <v>409780</v>
       </c>
@@ -40357,7 +40366,7 @@
       </c>
       <c r="AT442" s="4"/>
     </row>
-    <row r="443" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A443" s="2">
         <v>409781</v>
       </c>
@@ -40495,7 +40504,7 @@
       </c>
       <c r="AT443" s="4"/>
     </row>
-    <row r="444" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A444" s="2">
         <v>409782</v>
       </c>
@@ -40577,7 +40586,7 @@
       </c>
       <c r="AT444" s="4"/>
     </row>
-    <row r="445" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A445" s="2">
         <v>409940</v>
       </c>
@@ -40671,7 +40680,7 @@
       </c>
       <c r="AT445" s="4"/>
     </row>
-    <row r="446" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A446" s="2">
         <v>409944</v>
       </c>
@@ -40785,7 +40794,7 @@
       </c>
       <c r="AT446" s="4"/>
     </row>
-    <row r="447" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A447" s="2">
         <v>409964</v>
       </c>
@@ -40899,7 +40908,7 @@
       <c r="AS447" s="4"/>
       <c r="AT447" s="4"/>
     </row>
-    <row r="448" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A448" s="2">
         <v>410040</v>
       </c>
@@ -40963,7 +40972,7 @@
       <c r="AS448" s="4"/>
       <c r="AT448" s="4"/>
     </row>
-    <row r="449" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A449" s="2">
         <v>410186</v>
       </c>
@@ -41055,7 +41064,7 @@
       <c r="AS449" s="4"/>
       <c r="AT449" s="4"/>
     </row>
-    <row r="450" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A450" s="2">
         <v>410188</v>
       </c>
@@ -41127,7 +41136,7 @@
       </c>
       <c r="AT450" s="4"/>
     </row>
-    <row r="451" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A451" s="2">
         <v>410235</v>
       </c>
@@ -41233,7 +41242,7 @@
       <c r="AS451" s="4"/>
       <c r="AT451" s="4"/>
     </row>
-    <row r="452" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A452" s="2">
         <v>410236</v>
       </c>
@@ -41339,7 +41348,7 @@
       <c r="AS452" s="4"/>
       <c r="AT452" s="4"/>
     </row>
-    <row r="453" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A453" s="2">
         <v>410238</v>
       </c>
@@ -41445,7 +41454,7 @@
       <c r="AS453" s="4"/>
       <c r="AT453" s="4"/>
     </row>
-    <row r="454" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A454" s="2">
         <v>410239</v>
       </c>
@@ -41551,7 +41560,7 @@
       <c r="AS454" s="4"/>
       <c r="AT454" s="4"/>
     </row>
-    <row r="455" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A455" s="2">
         <v>410313</v>
       </c>
@@ -41651,7 +41660,7 @@
       </c>
       <c r="AT455" s="4"/>
     </row>
-    <row r="456" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A456" s="2">
         <v>410314</v>
       </c>
@@ -41751,7 +41760,7 @@
       </c>
       <c r="AT456" s="4"/>
     </row>
-    <row r="457" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A457" s="2">
         <v>411077</v>
       </c>
@@ -41839,7 +41848,7 @@
       <c r="AS457" s="4"/>
       <c r="AT457" s="4"/>
     </row>
-    <row r="458" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A458" s="2">
         <v>411108</v>
       </c>
@@ -41903,7 +41912,7 @@
       <c r="AS458" s="4"/>
       <c r="AT458" s="4"/>
     </row>
-    <row r="459" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A459" s="2">
         <v>411231</v>
       </c>
@@ -41981,7 +41990,7 @@
       </c>
       <c r="AT459" s="4"/>
     </row>
-    <row r="460" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A460" s="2">
         <v>411232</v>
       </c>
@@ -42055,7 +42064,7 @@
       </c>
       <c r="AT460" s="4"/>
     </row>
-    <row r="461" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A461" s="2">
         <v>411233</v>
       </c>
@@ -42145,7 +42154,7 @@
       </c>
       <c r="AT461" s="4"/>
     </row>
-    <row r="462" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A462" s="2">
         <v>411234</v>
       </c>
@@ -42233,7 +42242,7 @@
       </c>
       <c r="AT462" s="4"/>
     </row>
-    <row r="463" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A463" s="2">
         <v>411236</v>
       </c>
@@ -42327,7 +42336,7 @@
       </c>
       <c r="AT463" s="4"/>
     </row>
-    <row r="464" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A464" s="2">
         <v>411327</v>
       </c>
@@ -42395,7 +42404,7 @@
       <c r="AS464" s="4"/>
       <c r="AT464" s="4"/>
     </row>
-    <row r="465" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A465" s="2">
         <v>411328</v>
       </c>
@@ -42475,7 +42484,7 @@
       <c r="AS465" s="4"/>
       <c r="AT465" s="4"/>
     </row>
-    <row r="466" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A466" s="2">
         <v>411399</v>
       </c>
@@ -42557,7 +42566,7 @@
       <c r="AS466" s="4"/>
       <c r="AT466" s="4"/>
     </row>
-    <row r="467" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A467" s="2">
         <v>411452</v>
       </c>
@@ -42625,7 +42634,7 @@
       <c r="AS467" s="4"/>
       <c r="AT467" s="4"/>
     </row>
-    <row r="468" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A468" s="2">
         <v>411520</v>
       </c>
@@ -42711,7 +42720,7 @@
       <c r="AS468" s="4"/>
       <c r="AT468" s="4"/>
     </row>
-    <row r="469" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A469" s="2">
         <v>411691</v>
       </c>
@@ -42787,7 +42796,7 @@
       <c r="AS469" s="4"/>
       <c r="AT469" s="4"/>
     </row>
-    <row r="470" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A470" s="2">
         <v>411775</v>
       </c>
@@ -42875,7 +42884,7 @@
       </c>
       <c r="AT470" s="4"/>
     </row>
-    <row r="471" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A471" s="2">
         <v>411861</v>
       </c>
@@ -42955,7 +42964,7 @@
       <c r="AS471" s="4"/>
       <c r="AT471" s="4"/>
     </row>
-    <row r="472" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A472" s="2">
         <v>412004</v>
       </c>
@@ -43021,7 +43030,7 @@
       <c r="AS472" s="4"/>
       <c r="AT472" s="4"/>
     </row>
-    <row r="473" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A473" s="2">
         <v>412167</v>
       </c>
@@ -43103,7 +43112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A474" s="2">
         <v>420669</v>
       </c>
@@ -43175,7 +43184,7 @@
       <c r="AS474" s="4"/>
       <c r="AT474" s="4"/>
     </row>
-    <row r="475" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A475" s="2">
         <v>421211</v>
       </c>
@@ -43245,7 +43254,7 @@
       </c>
       <c r="AT475" s="4"/>
     </row>
-    <row r="476" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A476" s="2">
         <v>424823</v>
       </c>
@@ -43313,7 +43322,7 @@
       </c>
       <c r="AT476" s="4"/>
     </row>
-    <row r="477" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A477" s="2">
         <v>426730</v>
       </c>
@@ -43381,7 +43390,7 @@
       <c r="AS477" s="4"/>
       <c r="AT477" s="4"/>
     </row>
-    <row r="478" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A478" s="2">
         <v>432243</v>
       </c>
@@ -43459,7 +43468,7 @@
       </c>
       <c r="AT478" s="4"/>
     </row>
-    <row r="479" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A479" s="2">
         <v>434309</v>
       </c>
@@ -43531,7 +43540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A480" s="2">
         <v>437027</v>
       </c>
@@ -43623,7 +43632,7 @@
       <c r="AS480" s="4"/>
       <c r="AT480" s="4"/>
     </row>
-    <row r="481" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A481" s="2">
         <v>442583</v>
       </c>
@@ -43705,7 +43714,7 @@
       </c>
       <c r="AT481" s="4"/>
     </row>
-    <row r="482" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A482" s="2">
         <v>442650</v>
       </c>
@@ -43773,7 +43782,7 @@
       </c>
       <c r="AT482" s="4"/>
     </row>
-    <row r="483" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A483" s="2">
         <v>442651</v>
       </c>
@@ -43841,7 +43850,7 @@
       </c>
       <c r="AT483" s="4"/>
     </row>
-    <row r="484" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A484" s="2">
         <v>442652</v>
       </c>
@@ -43909,7 +43918,7 @@
       </c>
       <c r="AT484" s="4"/>
     </row>
-    <row r="485" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A485" s="2">
         <v>442653</v>
       </c>
@@ -43977,7 +43986,7 @@
       </c>
       <c r="AT485" s="4"/>
     </row>
-    <row r="486" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A486" s="2">
         <v>442654</v>
       </c>
@@ -44045,7 +44054,7 @@
       </c>
       <c r="AT486" s="4"/>
     </row>
-    <row r="487" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A487" s="2">
         <v>442655</v>
       </c>
@@ -44113,7 +44122,7 @@
       </c>
       <c r="AT487" s="4"/>
     </row>
-    <row r="488" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A488" s="2">
         <v>442656</v>
       </c>
@@ -44181,7 +44190,7 @@
       </c>
       <c r="AT488" s="4"/>
     </row>
-    <row r="489" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A489" s="2">
         <v>442657</v>
       </c>
@@ -44249,7 +44258,7 @@
       </c>
       <c r="AT489" s="4"/>
     </row>
-    <row r="490" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A490" s="2">
         <v>442658</v>
       </c>
@@ -44317,7 +44326,7 @@
       </c>
       <c r="AT490" s="4"/>
     </row>
-    <row r="491" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A491" s="2">
         <v>442659</v>
       </c>
@@ -44385,7 +44394,7 @@
       </c>
       <c r="AT491" s="4"/>
     </row>
-    <row r="492" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A492" s="2">
         <v>442660</v>
       </c>
@@ -44453,7 +44462,7 @@
       </c>
       <c r="AT492" s="4"/>
     </row>
-    <row r="493" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A493" s="2">
         <v>442661</v>
       </c>
@@ -44521,7 +44530,7 @@
       </c>
       <c r="AT493" s="4"/>
     </row>
-    <row r="494" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A494" s="2">
         <v>442662</v>
       </c>
@@ -44589,7 +44598,7 @@
       </c>
       <c r="AT494" s="4"/>
     </row>
-    <row r="495" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A495" s="2">
         <v>442663</v>
       </c>
@@ -44657,7 +44666,7 @@
       </c>
       <c r="AT495" s="4"/>
     </row>
-    <row r="496" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A496" s="2">
         <v>442665</v>
       </c>
@@ -44725,7 +44734,7 @@
       </c>
       <c r="AT496" s="4"/>
     </row>
-    <row r="497" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A497" s="2">
         <v>442666</v>
       </c>
@@ -44793,7 +44802,7 @@
       </c>
       <c r="AT497" s="4"/>
     </row>
-    <row r="498" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A498" s="2">
         <v>442667</v>
       </c>
@@ -44861,7 +44870,7 @@
       </c>
       <c r="AT498" s="4"/>
     </row>
-    <row r="499" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A499" s="2">
         <v>442668</v>
       </c>
@@ -44929,7 +44938,7 @@
       </c>
       <c r="AT499" s="4"/>
     </row>
-    <row r="500" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A500" s="2">
         <v>442669</v>
       </c>
@@ -44997,7 +45006,7 @@
       </c>
       <c r="AT500" s="4"/>
     </row>
-    <row r="501" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A501" s="2">
         <v>442670</v>
       </c>
@@ -45065,7 +45074,7 @@
       </c>
       <c r="AT501" s="4"/>
     </row>
-    <row r="502" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A502" s="2">
         <v>442671</v>
       </c>
@@ -45133,7 +45142,7 @@
       </c>
       <c r="AT502" s="4"/>
     </row>
-    <row r="503" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A503" s="2">
         <v>442672</v>
       </c>
@@ -45201,7 +45210,7 @@
       </c>
       <c r="AT503" s="4"/>
     </row>
-    <row r="504" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A504" s="2">
         <v>442673</v>
       </c>
@@ -45269,7 +45278,7 @@
       </c>
       <c r="AT504" s="4"/>
     </row>
-    <row r="505" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:46" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A505" s="2">
         <v>442674</v>
       </c>
@@ -45337,7 +45346,7 @@
       </c>
       <c r="AT505" s="4"/>
     </row>
-    <row r="506" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A506" s="2">
         <v>444579</v>
       </c>
@@ -45407,7 +45416,7 @@
       </c>
       <c r="AT506" s="4"/>
     </row>
-    <row r="507" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A507" s="2">
         <v>446044</v>
       </c>
@@ -45475,7 +45484,7 @@
       </c>
       <c r="AT507" s="4"/>
     </row>
-    <row r="508" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A508" s="2">
         <v>446045</v>
       </c>
@@ -45543,7 +45552,7 @@
       </c>
       <c r="AT508" s="4"/>
     </row>
-    <row r="509" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A509" s="2">
         <v>447679</v>
       </c>
@@ -45619,7 +45628,7 @@
       </c>
       <c r="AT509" s="4"/>
     </row>
-    <row r="510" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A510" s="2">
         <v>447974</v>
       </c>
@@ -45695,7 +45704,7 @@
       </c>
       <c r="AT510" s="4"/>
     </row>
-    <row r="511" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A511" s="2">
         <v>458015</v>
       </c>
@@ -45771,7 +45780,7 @@
       </c>
       <c r="AT511" s="4"/>
     </row>
-    <row r="512" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A512" s="2">
         <v>459083</v>
       </c>
@@ -45849,7 +45858,7 @@
       </c>
       <c r="AT512" s="4"/>
     </row>
-    <row r="513" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A513" s="2">
         <v>459084</v>
       </c>
@@ -45927,7 +45936,7 @@
       </c>
       <c r="AT513" s="4"/>
     </row>
-    <row r="514" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A514" s="2">
         <v>459604</v>
       </c>
@@ -46005,7 +46014,7 @@
       </c>
       <c r="AT514" s="4"/>
     </row>
-    <row r="515" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A515" s="2">
         <v>459605</v>
       </c>
@@ -46085,7 +46094,7 @@
       </c>
       <c r="AT515" s="4"/>
     </row>
-    <row r="516" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A516" s="2">
         <v>459606</v>
       </c>
@@ -46165,7 +46174,7 @@
       </c>
       <c r="AT516" s="4"/>
     </row>
-    <row r="517" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A517" s="2">
         <v>459607</v>
       </c>
@@ -46245,7 +46254,7 @@
       </c>
       <c r="AT517" s="4"/>
     </row>
-    <row r="518" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A518" s="2">
         <v>459610</v>
       </c>
@@ -46325,7 +46334,7 @@
       </c>
       <c r="AT518" s="4"/>
     </row>
-    <row r="519" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A519" s="2">
         <v>459611</v>
       </c>
@@ -46405,7 +46414,7 @@
       </c>
       <c r="AT519" s="4"/>
     </row>
-    <row r="520" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A520" s="2">
         <v>459612</v>
       </c>
@@ -46481,7 +46490,7 @@
       </c>
       <c r="AT520" s="4"/>
     </row>
-    <row r="521" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A521" s="2">
         <v>464421</v>
       </c>
@@ -46551,7 +46560,7 @@
       </c>
       <c r="AT521" s="4"/>
     </row>
-    <row r="522" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A522" s="2">
         <v>464810</v>
       </c>
@@ -46623,7 +46632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A523" s="2">
         <v>464811</v>
       </c>
@@ -46695,7 +46704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A524" s="2">
         <v>464812</v>
       </c>
@@ -46767,7 +46776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A525" s="2">
         <v>464813</v>
       </c>
@@ -46839,7 +46848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A526" s="2">
         <v>464814</v>
       </c>
@@ -46911,7 +46920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A527" s="2">
         <v>465025</v>
       </c>
@@ -46983,7 +46992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A528" s="2">
         <v>465028</v>
       </c>
@@ -47055,7 +47064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A529" s="2">
         <v>465034</v>
       </c>
@@ -47127,7 +47136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A530" s="2">
         <v>465037</v>
       </c>
@@ -47199,7 +47208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A531" s="2">
         <v>465066</v>
       </c>
@@ -47271,7 +47280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A532" s="2">
         <v>465068</v>
       </c>
@@ -47343,7 +47352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A533" s="2">
         <v>465072</v>
       </c>
@@ -47415,7 +47424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A534" s="2">
         <v>465077</v>
       </c>
@@ -47487,7 +47496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A535" s="2">
         <v>465081</v>
       </c>
@@ -47559,7 +47568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A536" s="2">
         <v>466530</v>
       </c>
@@ -47635,7 +47644,7 @@
       </c>
       <c r="AT536" s="4"/>
     </row>
-    <row r="537" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A537" s="2">
         <v>466531</v>
       </c>
@@ -47711,7 +47720,7 @@
       </c>
       <c r="AT537" s="4"/>
     </row>
-    <row r="538" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A538" s="2">
         <v>486823</v>
       </c>
@@ -47781,7 +47790,7 @@
       </c>
       <c r="AT538" s="4"/>
     </row>
-    <row r="539" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A539" s="2">
         <v>490199</v>
       </c>
@@ -47845,7 +47854,7 @@
       <c r="AS539" s="4"/>
       <c r="AT539" s="4"/>
     </row>
-    <row r="540" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A540" s="2">
         <v>492850</v>
       </c>
@@ -47913,7 +47922,7 @@
         <v>2084204</v>
       </c>
     </row>
-    <row r="541" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A541" s="2">
         <v>492851</v>
       </c>
@@ -47981,7 +47990,7 @@
         <v>34825200</v>
       </c>
     </row>
-    <row r="542" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A542" s="2">
         <v>496673</v>
       </c>
@@ -48045,7 +48054,7 @@
       </c>
       <c r="AT542" s="4"/>
     </row>
-    <row r="543" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A543" s="2">
         <v>496674</v>
       </c>
@@ -48109,7 +48118,7 @@
       </c>
       <c r="AT543" s="4"/>
     </row>
-    <row r="544" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A544" s="2">
         <v>498073</v>
       </c>
@@ -48173,7 +48182,7 @@
       </c>
       <c r="AT544" s="4"/>
     </row>
-    <row r="545" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A545" s="2">
         <v>498328</v>
       </c>
